--- a/tether_data.xlsx
+++ b/tether_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>1.001841665902949</v>
+        <v>1.000989492538229</v>
       </c>
       <c r="C2" t="n">
-        <v>57625412321.61975</v>
+        <v>48208349895.61974</v>
       </c>
       <c r="D2" t="n">
-        <v>67652985767.09705</v>
+        <v>67628387530.74783</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>1.000989492538229</v>
+        <v>1.000875305217222</v>
       </c>
       <c r="C3" t="n">
-        <v>48208349895.61974</v>
+        <v>54358380616.31724</v>
       </c>
       <c r="D3" t="n">
-        <v>67628387530.74783</v>
+        <v>67661309991.09669</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.04868142144285326</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>1.000875305217222</v>
+        <v>1.001240513003254</v>
       </c>
       <c r="C4" t="n">
-        <v>54358380616.31724</v>
+        <v>42090137658.37553</v>
       </c>
       <c r="D4" t="n">
-        <v>67661309991.09669</v>
+        <v>67599397338.53362</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-0.09150377456661474</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>1.001240513003254</v>
+        <v>1.003335234972235</v>
       </c>
       <c r="C5" t="n">
-        <v>42090137658.37553</v>
+        <v>63302882757.68369</v>
       </c>
       <c r="D5" t="n">
-        <v>67599397338.53362</v>
+        <v>67613790592.34826</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.02129198540419264</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>1.003335234972235</v>
+        <v>1.000816494062266</v>
       </c>
       <c r="C6" t="n">
-        <v>63302882757.68369</v>
+        <v>46233757335.90432</v>
       </c>
       <c r="D6" t="n">
-        <v>67613790592.34826</v>
+        <v>67636574571.28297</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.03369723651802659</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>1.000816494062266</v>
+        <v>1.002969673813954</v>
       </c>
       <c r="C7" t="n">
-        <v>46233757335.90432</v>
+        <v>42255111231.61164</v>
       </c>
       <c r="D7" t="n">
-        <v>67636574571.28297</v>
+        <v>67709967896.07332</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.108511297704772</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>1.002969673813954</v>
+        <v>1.000701901234547</v>
       </c>
       <c r="C8" t="n">
-        <v>42255111231.61164</v>
+        <v>50548635958.83002</v>
       </c>
       <c r="D8" t="n">
-        <v>67709967896.07332</v>
+        <v>67459980598.66122</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-0.3692030954671188</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>1.000701901234547</v>
+        <v>1.001208931324576</v>
       </c>
       <c r="C9" t="n">
-        <v>50548635958.83002</v>
+        <v>56598212569.37236</v>
       </c>
       <c r="D9" t="n">
-        <v>67459980598.66122</v>
+        <v>67595655943.20196</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.201119750312273</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>1.001208931324576</v>
+        <v>1.000941198536676</v>
       </c>
       <c r="C10" t="n">
-        <v>56598212569.37236</v>
+        <v>37039750574.43712</v>
       </c>
       <c r="D10" t="n">
-        <v>67595655943.20196</v>
+        <v>67662286384.41471</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.09857207579839766</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>1.000941198536676</v>
+        <v>1.000881420182709</v>
       </c>
       <c r="C11" t="n">
-        <v>37039750574.43712</v>
+        <v>34809123287.71343</v>
       </c>
       <c r="D11" t="n">
-        <v>67662286384.41471</v>
+        <v>67607803889.07153</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-0.08052121536898937</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>1.000881420182709</v>
+        <v>1.003678959274107</v>
       </c>
       <c r="C12" t="n">
-        <v>34809123287.71343</v>
+        <v>44419821917.54289</v>
       </c>
       <c r="D12" t="n">
-        <v>67607803889.07153</v>
+        <v>67603617552.80545</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-0.006192090299150799</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>1.003678959274107</v>
+        <v>1.000618561350199</v>
       </c>
       <c r="C13" t="n">
-        <v>44419821917.54289</v>
+        <v>30622120566.75287</v>
       </c>
       <c r="D13" t="n">
-        <v>67603617552.80545</v>
+        <v>67491483345.88653</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-0.1658701279281916</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>1.000618561350199</v>
+        <v>1.003570396516241</v>
       </c>
       <c r="C14" t="n">
-        <v>30622120566.75287</v>
+        <v>23155042045.79103</v>
       </c>
       <c r="D14" t="n">
-        <v>67491483345.88653</v>
+        <v>67758458419.37183</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.3955685373176365</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>1.003570396516241</v>
+        <v>1.001428800362592</v>
       </c>
       <c r="C15" t="n">
-        <v>23155042045.79103</v>
+        <v>35417745060.28471</v>
       </c>
       <c r="D15" t="n">
-        <v>67758458419.37183</v>
+        <v>67565637622.98869</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-0.2845708135650438</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>1.001428800362592</v>
+        <v>0.9995544629014373</v>
       </c>
       <c r="C16" t="n">
-        <v>35417745060.28471</v>
+        <v>38865747816.68629</v>
       </c>
       <c r="D16" t="n">
-        <v>67565637622.98869</v>
+        <v>67519668194.44912</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-0.06803669758299602</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9995544629014373</v>
+        <v>0.9996408880046704</v>
       </c>
       <c r="C17" t="n">
-        <v>38865747816.68629</v>
+        <v>36863645337.5263</v>
       </c>
       <c r="D17" t="n">
-        <v>67519668194.44912</v>
+        <v>67580452604.83598</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.09002474688086792</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9996408880046704</v>
+        <v>1.000902530343028</v>
       </c>
       <c r="C18" t="n">
-        <v>36863645337.5263</v>
+        <v>34802151033.14091</v>
       </c>
       <c r="D18" t="n">
-        <v>67580452604.83598</v>
+        <v>67566686586.32284</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-0.0203698229037208</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>1.000902530343028</v>
+        <v>1.000466331349663</v>
       </c>
       <c r="C19" t="n">
-        <v>34802151033.14091</v>
+        <v>33809698241.79397</v>
       </c>
       <c r="D19" t="n">
-        <v>67566686586.32284</v>
+        <v>67589758604.17418</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.03414703164681399</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>1.000466331349663</v>
+        <v>1.001314227738835</v>
       </c>
       <c r="C20" t="n">
-        <v>33809698241.79397</v>
+        <v>23428663482.63433</v>
       </c>
       <c r="D20" t="n">
-        <v>67589758604.17418</v>
+        <v>67621840541.26844</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.04746567787310418</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>1.001314227738835</v>
+        <v>1.000028237158527</v>
       </c>
       <c r="C21" t="n">
-        <v>23428663482.63433</v>
+        <v>23937730079.25085</v>
       </c>
       <c r="D21" t="n">
-        <v>67621840541.26844</v>
+        <v>67552311534.99393</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-0.1028203398753647</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>1.000028237158527</v>
+        <v>0.9976409830850305</v>
       </c>
       <c r="C22" t="n">
-        <v>23937730079.25085</v>
+        <v>30224237112.89919</v>
       </c>
       <c r="D22" t="n">
-        <v>67552311534.99393</v>
+        <v>67462799318.13787</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-0.1325079998331313</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9976409830850305</v>
+        <v>1.000533131699609</v>
       </c>
       <c r="C23" t="n">
-        <v>30224237112.89919</v>
+        <v>52031455666.86407</v>
       </c>
       <c r="D23" t="n">
-        <v>67462799318.13787</v>
+        <v>67553030576.27932</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.133749650256787</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>1.000533131699609</v>
+        <v>1.000143070794973</v>
       </c>
       <c r="C24" t="n">
-        <v>52031455666.86407</v>
+        <v>42962093145.40324</v>
       </c>
       <c r="D24" t="n">
-        <v>67553030576.27932</v>
+        <v>67550650693.04298</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-0.003522985151127589</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>1.000143070794973</v>
+        <v>1.00024511262873</v>
       </c>
       <c r="C25" t="n">
-        <v>42962093145.40324</v>
+        <v>40601398955.8924</v>
       </c>
       <c r="D25" t="n">
-        <v>67550650693.04298</v>
+        <v>67563856236.7534</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.01954909919434922</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>1.00024511262873</v>
+        <v>1.000680808564117</v>
       </c>
       <c r="C26" t="n">
-        <v>40601398955.8924</v>
+        <v>58186783978.80737</v>
       </c>
       <c r="D26" t="n">
-        <v>67563856236.7534</v>
+        <v>67559691716.58324</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-0.006163828416716477</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>1.000680808564117</v>
+        <v>1.001126844567952</v>
       </c>
       <c r="C27" t="n">
-        <v>58186783978.80737</v>
+        <v>44922345455.78997</v>
       </c>
       <c r="D27" t="n">
-        <v>67559691716.58324</v>
+        <v>67616934268.85489</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.08472885357704296</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>1.001126844567952</v>
+        <v>0.9987141519897952</v>
       </c>
       <c r="C28" t="n">
-        <v>44922345455.78997</v>
+        <v>38020536333.84481</v>
       </c>
       <c r="D28" t="n">
-        <v>67616934268.85489</v>
+        <v>67621935137.52143</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.007395881994076703</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9987141519897952</v>
+        <v>0.9987535962328009</v>
       </c>
       <c r="C29" t="n">
-        <v>38020536333.84481</v>
+        <v>52565815667.17374</v>
       </c>
       <c r="D29" t="n">
-        <v>67621935137.52143</v>
+        <v>67670900660.71105</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.07241070976458097</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9987535962328009</v>
+        <v>0.9997880847922771</v>
       </c>
       <c r="C30" t="n">
-        <v>52565815667.17374</v>
+        <v>58063643357.98546</v>
       </c>
       <c r="D30" t="n">
-        <v>67670900660.71105</v>
+        <v>67937100888.36377</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0.3933747372262708</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9997880847922771</v>
+        <v>1.000629490269563</v>
       </c>
       <c r="C31" t="n">
-        <v>58063643357.98546</v>
+        <v>46713912644.37717</v>
       </c>
       <c r="D31" t="n">
-        <v>67937100888.36377</v>
+        <v>67875153355.23154</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00135682468750455</v>
+        <v>0.001343364837042082</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.09118365712134091</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>1.000629490269563</v>
+        <v>1.000219035653096</v>
       </c>
       <c r="C32" t="n">
-        <v>46713912644.37717</v>
+        <v>50060584473.28158</v>
       </c>
       <c r="D32" t="n">
-        <v>67875153355.23154</v>
+        <v>67891357718.12157</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001343364837042119</v>
+        <v>0.001346594913484895</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02387377720565187</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>1.000219035653096</v>
+        <v>0.9997480764150961</v>
       </c>
       <c r="C33" t="n">
-        <v>50060584473.28158</v>
+        <v>39890000684.23793</v>
       </c>
       <c r="D33" t="n">
-        <v>67891357718.12157</v>
+        <v>67984908907.33317</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001346594913484934</v>
+        <v>0.001358792097787286</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1377954313419583</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9997480764150961</v>
+        <v>1.000259575629485</v>
       </c>
       <c r="C34" t="n">
-        <v>39890000684.23793</v>
+        <v>28768839342.09715</v>
       </c>
       <c r="D34" t="n">
-        <v>67984908907.33317</v>
+        <v>67929683638.52679</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001358792097787325</v>
+        <v>0.001357571216872029</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.08123165816351641</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>1.000259575629485</v>
+        <v>1.001735751997517</v>
       </c>
       <c r="C35" t="n">
-        <v>28768839342.09715</v>
+        <v>37379866281.02319</v>
       </c>
       <c r="D35" t="n">
-        <v>67929683638.52679</v>
+        <v>68047634333.75496</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001357571216872068</v>
+        <v>0.001279021730722055</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1736364559797199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>1.001735751997517</v>
+        <v>0.9999488114654055</v>
       </c>
       <c r="C36" t="n">
-        <v>37379866281.02319</v>
+        <v>49397242980.14503</v>
       </c>
       <c r="D36" t="n">
-        <v>68047634333.75496</v>
+        <v>67939949725.58882</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001279021730722097</v>
+        <v>0.001284489688232595</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.1582488637855817</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9999488114654055</v>
+        <v>0.999982284892132</v>
       </c>
       <c r="C37" t="n">
-        <v>49397242980.14503</v>
+        <v>41212254916.07298</v>
       </c>
       <c r="D37" t="n">
-        <v>67939949725.58882</v>
+        <v>68008979229.87418</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001284489688232636</v>
+        <v>0.001208173053135129</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1016037023344518</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>0.999982284892132</v>
+        <v>1.000841350666571</v>
       </c>
       <c r="C38" t="n">
-        <v>41212254916.07298</v>
+        <v>49684226032.52437</v>
       </c>
       <c r="D38" t="n">
-        <v>68008979229.87418</v>
+        <v>68008869299.22897</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001208173053135174</v>
+        <v>0.001209233061399533</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.0001616413692007157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>1.000841350666571</v>
+        <v>1.000381592087186</v>
       </c>
       <c r="C39" t="n">
-        <v>49684226032.52437</v>
+        <v>45518094563.55377</v>
       </c>
       <c r="D39" t="n">
-        <v>68008869299.22897</v>
+        <v>67906039948.3166</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001209233061399577</v>
+        <v>0.001202097731604369</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.1511999125583752</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>1.000381592087186</v>
+        <v>1.00089382830591</v>
       </c>
       <c r="C40" t="n">
-        <v>45518094563.55377</v>
+        <v>46315125196.18761</v>
       </c>
       <c r="D40" t="n">
-        <v>67906039948.3166</v>
+        <v>68027171287.0883</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001202097731604413</v>
+        <v>0.001201501900076418</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.178380802155309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>1.00089382830591</v>
+        <v>1.000514273149503</v>
       </c>
       <c r="C41" t="n">
-        <v>46315125196.18761</v>
+        <v>31895001290.0738</v>
       </c>
       <c r="D41" t="n">
-        <v>68027171287.0883</v>
+        <v>67976902021.59561</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001201501900076463</v>
+        <v>0.001199122190528136</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.07389586328754305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>1.000514273149503</v>
+        <v>1.000820423288107</v>
       </c>
       <c r="C42" t="n">
-        <v>31895001290.0738</v>
+        <v>28190433126.97997</v>
       </c>
       <c r="D42" t="n">
-        <v>67976902021.59561</v>
+        <v>68047936265.74275</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00119912219052818</v>
+        <v>0.001037730953744336</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1044976190950564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>1.000820423288107</v>
+        <v>1.001068088184246</v>
       </c>
       <c r="C43" t="n">
-        <v>28190433126.97997</v>
+        <v>184413798299.5883</v>
       </c>
       <c r="D43" t="n">
-        <v>68047936265.74275</v>
+        <v>67930817962.00264</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001037730953744387</v>
+        <v>0.001044653850551411</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.1721114704827165</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>1.001068088184246</v>
+        <v>1.000675304454686</v>
       </c>
       <c r="C44" t="n">
-        <v>184413798299.5883</v>
+        <v>59462886554.4584</v>
       </c>
       <c r="D44" t="n">
-        <v>67930817962.00264</v>
+        <v>67982225347.23598</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001044653850551462</v>
+        <v>0.0008572322626096441</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.07567608748961785</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000675304454686</v>
+        <v>1.001685566633911</v>
       </c>
       <c r="C45" t="n">
-        <v>59462886554.4584</v>
+        <v>53408344753.0263</v>
       </c>
       <c r="D45" t="n">
-        <v>67982225347.23598</v>
+        <v>68019534015.30044</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0008572322626097064</v>
+        <v>0.0008701856058611362</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.05488003352920323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>1.001685566633911</v>
+        <v>0.9999827356842071</v>
       </c>
       <c r="C46" t="n">
-        <v>53408344753.0263</v>
+        <v>43981415821.69666</v>
       </c>
       <c r="D46" t="n">
-        <v>68019534015.30044</v>
+        <v>68018936942.06588</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0008701856058611977</v>
+        <v>0.0008610341328090502</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.0008777967141382348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999827356842071</v>
+        <v>1.000868249091965</v>
       </c>
       <c r="C47" t="n">
-        <v>43981415821.69666</v>
+        <v>44169815650.11315</v>
       </c>
       <c r="D47" t="n">
-        <v>68018936942.06588</v>
+        <v>68032463504.97388</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0008610341328091123</v>
+        <v>0.0008571902537361462</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01988646620501022</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>1.000868249091965</v>
+        <v>1.000525820081537</v>
       </c>
       <c r="C48" t="n">
-        <v>44169815650.11315</v>
+        <v>21668992633.68877</v>
       </c>
       <c r="D48" t="n">
-        <v>68032463504.97388</v>
+        <v>67985211418.08468</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0008571902537362087</v>
+        <v>0.0008516043789161218</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.06945520484605838</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>1.000525820081537</v>
+        <v>1.001975868961398</v>
       </c>
       <c r="C49" t="n">
-        <v>21668992633.68877</v>
+        <v>23799534339.29136</v>
       </c>
       <c r="D49" t="n">
-        <v>67985211418.08468</v>
+        <v>67852870798.58752</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0008516043789161846</v>
+        <v>0.0009023786209879022</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1946608927687277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>1.001975868961398</v>
+        <v>0.9999689833860179</v>
       </c>
       <c r="C50" t="n">
-        <v>23799534339.29136</v>
+        <v>32437902531.47961</v>
       </c>
       <c r="D50" t="n">
-        <v>67852870798.58752</v>
+        <v>67955487841.61337</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0009023786209879615</v>
+        <v>0.0008882227421351438</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1512346372645634</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9999689833860179</v>
+        <v>1.000190399602489</v>
       </c>
       <c r="C51" t="n">
-        <v>32437902531.47961</v>
+        <v>35921416944.89973</v>
       </c>
       <c r="D51" t="n">
-        <v>67955487841.61337</v>
+        <v>68146472900.63477</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0008882227421352041</v>
+        <v>0.0008867145993553198</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2810443498934667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>1.000190399602489</v>
+        <v>0.9998863883696085</v>
       </c>
       <c r="C52" t="n">
-        <v>35921416944.89973</v>
+        <v>34389944867.26382</v>
       </c>
       <c r="D52" t="n">
-        <v>68146472900.63477</v>
+        <v>68249512085.34357</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0008867145993553801</v>
+        <v>0.0007311667754739875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1512025205751222</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9998863883696085</v>
+        <v>1.000209876870579</v>
       </c>
       <c r="C53" t="n">
-        <v>34389944867.26382</v>
+        <v>36750092116.7274</v>
       </c>
       <c r="D53" t="n">
-        <v>68249512085.34357</v>
+        <v>68240186691.13497</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0007311667754740607</v>
+        <v>0.0007319184525329558</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.01366367893874676</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>1.000209876870579</v>
+        <v>1.001639744433194</v>
       </c>
       <c r="C54" t="n">
-        <v>36750092116.7274</v>
+        <v>31438334493.59261</v>
       </c>
       <c r="D54" t="n">
-        <v>68240186691.13497</v>
+        <v>68360023403.83701</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000731918452533029</v>
+        <v>0.0007630582348955501</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1756101771005492</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>1.001639744433194</v>
+        <v>1.000242593134736</v>
       </c>
       <c r="C55" t="n">
-        <v>31438334493.59261</v>
+        <v>17963983007.54764</v>
       </c>
       <c r="D55" t="n">
-        <v>68360023403.83701</v>
+        <v>68384660011.30266</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0007630582348956203</v>
+        <v>0.0007630834471255684</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.03603949536428175</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>1.000242593134736</v>
+        <v>1.000249613081134</v>
       </c>
       <c r="C56" t="n">
-        <v>17963983007.54764</v>
+        <v>18466922347.50411</v>
       </c>
       <c r="D56" t="n">
-        <v>68384660011.30266</v>
+        <v>68308301853.70279</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0007630834471256385</v>
+        <v>0.0007629442300648412</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.1116597751414594</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>1.000249613081134</v>
+        <v>1.000076856827578</v>
       </c>
       <c r="C57" t="n">
-        <v>18466922347.50411</v>
+        <v>30080548476.6878</v>
       </c>
       <c r="D57" t="n">
-        <v>68308301853.70279</v>
+        <v>68465529813.59335</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0007629442300649112</v>
+        <v>0.0007549069222846091</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2301740134417196</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>1.000076856827578</v>
+        <v>1.000385528600532</v>
       </c>
       <c r="C58" t="n">
-        <v>30080548476.6878</v>
+        <v>31641663466.52827</v>
       </c>
       <c r="D58" t="n">
-        <v>68465529813.59335</v>
+        <v>68428561681.45524</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00075490692228468</v>
+        <v>0.0006832623054618282</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.05399524729999827</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>1.000385528600532</v>
+        <v>1.000060674813532</v>
       </c>
       <c r="C59" t="n">
-        <v>31641663466.52827</v>
+        <v>27880038583.92894</v>
       </c>
       <c r="D59" t="n">
-        <v>68428561681.45524</v>
+        <v>68433385613.54075</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0006832623054619064</v>
+        <v>0.000607395972412999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.007049588603025292</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>1.000060674813532</v>
+        <v>1.000462164549999</v>
       </c>
       <c r="C60" t="n">
-        <v>27880038583.92894</v>
+        <v>47643304506.82852</v>
       </c>
       <c r="D60" t="n">
-        <v>68433385613.54075</v>
+        <v>68454082242.04629</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0006073959724130871</v>
+        <v>0.0005918407000202383</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.03024346716151705</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>1.000462164549999</v>
+        <v>1.000780026452384</v>
       </c>
       <c r="C61" t="n">
-        <v>47643304506.82852</v>
+        <v>41444709430.76257</v>
       </c>
       <c r="D61" t="n">
-        <v>68454082242.04629</v>
+        <v>68389617989.81952</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0005918407000203288</v>
+        <v>0.0005932827686516001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.09417152361904657</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>1.000780026452384</v>
+        <v>1.000165325733</v>
       </c>
       <c r="C62" t="n">
-        <v>41444709430.76257</v>
+        <v>19333334085.86333</v>
       </c>
       <c r="D62" t="n">
-        <v>68389617989.81952</v>
+        <v>68388940699.0117</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0005932827686516904</v>
+        <v>0.0005943730401489623</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.0009903415572831697</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>1.000165325733</v>
+        <v>1.000104045817882</v>
       </c>
       <c r="C63" t="n">
-        <v>19333334085.86333</v>
+        <v>21715929164.96677</v>
       </c>
       <c r="D63" t="n">
-        <v>68388940699.0117</v>
+        <v>68445138503.11877</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0005943730401490524</v>
+        <v>0.0005814125953336888</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.08217381865061046</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>1.000104045817882</v>
+        <v>1.000036552877917</v>
       </c>
       <c r="C64" t="n">
-        <v>21715929164.96677</v>
+        <v>30096016792.83464</v>
       </c>
       <c r="D64" t="n">
-        <v>68445138503.11877</v>
+        <v>68416637689.73752</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0005814125953337808</v>
+        <v>0.0005866919726724593</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.04164037651842589</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>1.000036552877917</v>
+        <v>0.9997913618017134</v>
       </c>
       <c r="C65" t="n">
-        <v>30096016792.83464</v>
+        <v>31092126677.31911</v>
       </c>
       <c r="D65" t="n">
-        <v>68416637689.73752</v>
+        <v>68473113039.73508</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0005866919726725505</v>
+        <v>0.00055730898644768</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.08254622253387467</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9997913618017134</v>
+        <v>1.000794685329021</v>
       </c>
       <c r="C66" t="n">
-        <v>31092126677.31911</v>
+        <v>31334359788.15604</v>
       </c>
       <c r="D66" t="n">
-        <v>68473113039.73508</v>
+        <v>68452826677.49308</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000557308986447776</v>
+        <v>0.0005508430253249703</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.02962675616957622</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>1.000794685329021</v>
+        <v>0.9997569836874241</v>
       </c>
       <c r="C67" t="n">
-        <v>31334359788.15604</v>
+        <v>32639750034.81643</v>
       </c>
       <c r="D67" t="n">
-        <v>68452826677.49308</v>
+        <v>68446610236.90032</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0005508430253250674</v>
+        <v>0.0005597312697934134</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.009081349733075506</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9997569836874241</v>
+        <v>1.000082453434805</v>
       </c>
       <c r="C68" t="n">
-        <v>32639750034.81643</v>
+        <v>37548310707.92976</v>
       </c>
       <c r="D68" t="n">
-        <v>68446610236.90032</v>
+        <v>68465349602.0029</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000559731269793509</v>
+        <v>0.0005609741249099191</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0273780761935738</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>1.000082453434805</v>
+        <v>0.9999683452111616</v>
       </c>
       <c r="C69" t="n">
-        <v>37548310707.92976</v>
+        <v>19582168293.08256</v>
       </c>
       <c r="D69" t="n">
-        <v>68465349602.0029</v>
+        <v>68458383191.54517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0005609741249100145</v>
+        <v>0.0005683935388418327</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.01017508929440636</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9999683452111616</v>
+        <v>0.9994351849351343</v>
       </c>
       <c r="C70" t="n">
-        <v>19582168293.08256</v>
+        <v>27459706506.54703</v>
       </c>
       <c r="D70" t="n">
-        <v>68458383191.54517</v>
+        <v>68424379026.95898</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0005683935388419269</v>
+        <v>0.0005920824135152457</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.04967129371291623</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9994351849351343</v>
+        <v>0.9989384081114514</v>
       </c>
       <c r="C71" t="n">
-        <v>27459706506.54703</v>
+        <v>37229553780.41116</v>
       </c>
       <c r="D71" t="n">
-        <v>68424379026.95898</v>
+        <v>68401790564.43543</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000592082413515336</v>
+        <v>0.0006499112893043092</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.03301230182103376</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9989384081114514</v>
+        <v>0.9998878276861547</v>
       </c>
       <c r="C72" t="n">
-        <v>37229553780.41116</v>
+        <v>52750656997.38219</v>
       </c>
       <c r="D72" t="n">
-        <v>68401790564.43543</v>
+        <v>68515959469.88493</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0006499112893043915</v>
+        <v>0.0006494793239567414</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1669092351346269</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9998878276861547</v>
+        <v>1.000024986168923</v>
       </c>
       <c r="C73" t="n">
-        <v>52750656997.38219</v>
+        <v>66871458415.17754</v>
       </c>
       <c r="D73" t="n">
-        <v>68515959469.88493</v>
+        <v>68539062510.87245</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0006494793239568237</v>
+        <v>0.0006363843710292832</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.03371921106596343</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>1.000024986168923</v>
+        <v>0.9997997533795946</v>
       </c>
       <c r="C74" t="n">
-        <v>66871458415.17754</v>
+        <v>56959640808.52499</v>
       </c>
       <c r="D74" t="n">
-        <v>68539062510.87245</v>
+        <v>68889141732.72426</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0006363843710293673</v>
+        <v>0.0006384194085158029</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5107732861042269</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9997997533795946</v>
+        <v>0.9996207760018387</v>
       </c>
       <c r="C75" t="n">
-        <v>56959640808.52499</v>
+        <v>51258331483.20235</v>
       </c>
       <c r="D75" t="n">
-        <v>68889141732.72426</v>
+        <v>68964914947.12599</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0006384194085158867</v>
+        <v>0.0005895182474256185</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1099929720357329</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9996207760018387</v>
+        <v>0.9999481872906462</v>
       </c>
       <c r="C76" t="n">
-        <v>51258331483.20235</v>
+        <v>58797054524.7859</v>
       </c>
       <c r="D76" t="n">
-        <v>68964914947.12599</v>
+        <v>69095205493.06725</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0005895182474257093</v>
+        <v>0.0005899849512378918</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.188922941529257</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9999481872906462</v>
+        <v>1.00005289226143</v>
       </c>
       <c r="C77" t="n">
-        <v>58797054524.7859</v>
+        <v>44213807579.33701</v>
       </c>
       <c r="D77" t="n">
-        <v>69095205493.06725</v>
+        <v>69094359478.10323</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0005899849512379825</v>
+        <v>0.0005765730779171863</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.001224419202439098</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>1.00005289226143</v>
+        <v>0.9997744061325425</v>
       </c>
       <c r="C78" t="n">
-        <v>44213807579.33701</v>
+        <v>56271256469.37851</v>
       </c>
       <c r="D78" t="n">
-        <v>69094359478.10323</v>
+        <v>69380585989.30975</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0005765730779172791</v>
+        <v>0.0005768474553746827</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.4142545257941554</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9997744061325425</v>
+        <v>1.000244907226406</v>
       </c>
       <c r="C79" t="n">
-        <v>56271256469.37851</v>
+        <v>57085293472.77686</v>
       </c>
       <c r="D79" t="n">
-        <v>69380585989.30975</v>
+        <v>69425689152.10635</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0005768474553747756</v>
+        <v>0.000462502563216782</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.06500833360436609</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>1.000244907226406</v>
+        <v>1.000457818162785</v>
       </c>
       <c r="C80" t="n">
-        <v>57085293472.77686</v>
+        <v>70398948700.71053</v>
       </c>
       <c r="D80" t="n">
-        <v>69425689152.10635</v>
+        <v>69431437615.84599</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0004625025632168977</v>
+        <v>0.0004668287262064321</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.00828002402257777</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>1.000457818162785</v>
+        <v>1.000394618444188</v>
       </c>
       <c r="C81" t="n">
-        <v>70398948700.71053</v>
+        <v>61098517917.25042</v>
       </c>
       <c r="D81" t="n">
-        <v>69431437615.84599</v>
+        <v>69350142130.99507</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0004668287262065467</v>
+        <v>0.0004696383143377182</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.1170874284653567</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>1.000394618444188</v>
+        <v>0.9999178082464654</v>
       </c>
       <c r="C82" t="n">
-        <v>61098517917.25042</v>
+        <v>107040637620.1343</v>
       </c>
       <c r="D82" t="n">
-        <v>69350142130.99507</v>
+        <v>69355263616.87975</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0004696383143378321</v>
+        <v>0.0004691593151886764</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.007384968115853319</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9999178082464654</v>
+        <v>0.9997363316921275</v>
       </c>
       <c r="C83" t="n">
-        <v>107040637620.1343</v>
+        <v>79264413865.44206</v>
       </c>
       <c r="D83" t="n">
-        <v>69355263616.87975</v>
+        <v>69350525154.05742</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0004691593151887905</v>
+        <v>0.0004736330722431226</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.006832160351233352</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9997363316921275</v>
+        <v>0.9997881883783021</v>
       </c>
       <c r="C84" t="n">
-        <v>79264413865.44206</v>
+        <v>73874199409.92229</v>
       </c>
       <c r="D84" t="n">
-        <v>69350525154.05742</v>
+        <v>69346001162.83171</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0004736330722432355</v>
+        <v>0.0003758567504632642</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.006523369816824331</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9997881883783021</v>
+        <v>1.000630716069945</v>
       </c>
       <c r="C85" t="n">
-        <v>73874199409.92229</v>
+        <v>93016469924.66942</v>
       </c>
       <c r="D85" t="n">
-        <v>69346001162.83171</v>
+        <v>69511154153.31842</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0003758567504634066</v>
+        <v>0.0003897555039556207</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.238157914973236</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>1.000630716069945</v>
+        <v>0.9999400443953467</v>
       </c>
       <c r="C86" t="n">
-        <v>93016469924.66942</v>
+        <v>129388386062.1488</v>
       </c>
       <c r="D86" t="n">
-        <v>69511154153.31842</v>
+        <v>69513632100.61911</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000389755503955758</v>
+        <v>0.0003882625160286025</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.003564819676604714</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9999400443953467</v>
+        <v>0.9935871527774072</v>
       </c>
       <c r="C87" t="n">
-        <v>129388386062.1488</v>
+        <v>108993876463.3114</v>
       </c>
       <c r="D87" t="n">
-        <v>69513632100.61911</v>
+        <v>69466521505.56256</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0003882625160287403</v>
+        <v>0.001239357351076687</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.06777173574868955</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9935871527774072</v>
+        <v>1.00011945177237</v>
       </c>
       <c r="C88" t="n">
-        <v>108993876463.3114</v>
+        <v>98327010463.73619</v>
       </c>
       <c r="D88" t="n">
-        <v>69466521505.56256</v>
+        <v>68441044955.66142</v>
       </c>
       <c r="E88" t="n">
-        <v>0.001239357351076731</v>
+        <v>0.00123611065048669</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-1.476216928206242</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>1.00011945177237</v>
+        <v>1.003594066115595</v>
       </c>
       <c r="C89" t="n">
-        <v>98327010463.73619</v>
+        <v>63335359287.79127</v>
       </c>
       <c r="D89" t="n">
-        <v>68441044955.66142</v>
+        <v>68399398020.52115</v>
       </c>
       <c r="E89" t="n">
-        <v>0.001236110650486733</v>
+        <v>0.001416050647816913</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.0608508171773936</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>1.003594066115595</v>
+        <v>0.9998606436908576</v>
       </c>
       <c r="C90" t="n">
-        <v>63335359287.79127</v>
+        <v>33697110284.29813</v>
       </c>
       <c r="D90" t="n">
-        <v>68399398020.52115</v>
+        <v>67396572037.20409</v>
       </c>
       <c r="E90" t="n">
-        <v>0.001416050647816951</v>
+        <v>0.001412478211235189</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-1.466132761893879</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9998606436908576</v>
+        <v>1.000481936279992</v>
       </c>
       <c r="C91" t="n">
-        <v>33697110284.29813</v>
+        <v>31356687807.68955</v>
       </c>
       <c r="D91" t="n">
-        <v>67396572037.20409</v>
+        <v>66441439081.88792</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001412478211235227</v>
+        <v>0.001407169288275401</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-1.417183287584611</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000481936279992</v>
+        <v>1.001041508649653</v>
       </c>
       <c r="C92" t="n">
-        <v>31356687807.68955</v>
+        <v>52391831358.02371</v>
       </c>
       <c r="D92" t="n">
-        <v>66441439081.88792</v>
+        <v>66459223430.90205</v>
       </c>
       <c r="E92" t="n">
-        <v>0.001407169288275438</v>
+        <v>0.001421927270913893</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.02676695336507606</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>1.001041508649653</v>
+        <v>1.000800373578413</v>
       </c>
       <c r="C93" t="n">
-        <v>52391831358.02371</v>
+        <v>38525546061.9857</v>
       </c>
       <c r="D93" t="n">
-        <v>66459223430.90205</v>
+        <v>66125312403.21258</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001421927270913931</v>
+        <v>0.001430572790138942</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5024299268808763</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000800373578413</v>
+        <v>1.001089490395404</v>
       </c>
       <c r="C94" t="n">
-        <v>38525546061.9857</v>
+        <v>36791792662.71105</v>
       </c>
       <c r="D94" t="n">
-        <v>66125312403.21258</v>
+        <v>66019772913.77536</v>
       </c>
       <c r="E94" t="n">
-        <v>0.001430572790138979</v>
+        <v>0.001445599985819171</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.1596052791307367</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>1.001089490395404</v>
+        <v>1.001644651371187</v>
       </c>
       <c r="C95" t="n">
-        <v>36791792662.71105</v>
+        <v>30033424551.30771</v>
       </c>
       <c r="D95" t="n">
-        <v>66019772913.77536</v>
+        <v>65972069594.07388</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001445599985819208</v>
+        <v>0.001476296399519905</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.07225610994417986</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>1.001644651371187</v>
+        <v>1.000342063230213</v>
       </c>
       <c r="C96" t="n">
-        <v>30033424551.30771</v>
+        <v>27854759035.62173</v>
       </c>
       <c r="D96" t="n">
-        <v>65972069594.07388</v>
+        <v>65986696851.80106</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001476296399519941</v>
+        <v>0.001470695583660246</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.02217189458688651</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>1.000342063230213</v>
+        <v>1.000204618474403</v>
       </c>
       <c r="C97" t="n">
-        <v>27854759035.62173</v>
+        <v>17132635759.57166</v>
       </c>
       <c r="D97" t="n">
-        <v>65986696851.80106</v>
+        <v>65965182392.95004</v>
       </c>
       <c r="E97" t="n">
-        <v>0.001470695583660283</v>
+        <v>0.001470079102934136</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.03260423672871715</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000204618474403</v>
+        <v>1.001461268489628</v>
       </c>
       <c r="C98" t="n">
-        <v>17132635759.57166</v>
+        <v>25402529237.82819</v>
       </c>
       <c r="D98" t="n">
-        <v>65965182392.95004</v>
+        <v>65964018960.94639</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001470079102934172</v>
+        <v>0.00149260715862864</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.001763706187796199</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>1.001461268489628</v>
+        <v>1.000944188949225</v>
       </c>
       <c r="C99" t="n">
-        <v>25402529237.82819</v>
+        <v>45020483379.111</v>
       </c>
       <c r="D99" t="n">
-        <v>65964018960.94639</v>
+        <v>65939717655.37897</v>
       </c>
       <c r="E99" t="n">
-        <v>0.001492607158628676</v>
+        <v>0.001500410882831256</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.03684024404547737</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000944188949225</v>
+        <v>0.9990451854495718</v>
       </c>
       <c r="C100" t="n">
-        <v>45020483379.111</v>
+        <v>36813082386.05067</v>
       </c>
       <c r="D100" t="n">
-        <v>65939717655.37897</v>
+        <v>65597886005.57602</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001500410882831292</v>
+        <v>0.001508266958580453</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.5184002327542014</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9990451854495718</v>
+        <v>1.000501704592323</v>
       </c>
       <c r="C101" t="n">
-        <v>36813082386.05067</v>
+        <v>38156998382.6669</v>
       </c>
       <c r="D101" t="n">
-        <v>65597886005.57602</v>
+        <v>65543712562.18742</v>
       </c>
       <c r="E101" t="n">
-        <v>0.001508266958580489</v>
+        <v>0.001493235422528201</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.08258412989710084</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>1.000501704592323</v>
+        <v>1.000575448135948</v>
       </c>
       <c r="C102" t="n">
-        <v>38156998382.6669</v>
+        <v>31046703494.93412</v>
       </c>
       <c r="D102" t="n">
-        <v>65543712562.18742</v>
+        <v>65367598699.39223</v>
       </c>
       <c r="E102" t="n">
-        <v>0.001493235422528237</v>
+        <v>0.001494117906742151</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.2686968069257611</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>1.000575448135948</v>
+        <v>0.9996752496876327</v>
       </c>
       <c r="C103" t="n">
-        <v>31046703494.93412</v>
+        <v>26511192322.84706</v>
       </c>
       <c r="D103" t="n">
-        <v>65367598699.39223</v>
+        <v>65345701967.11671</v>
       </c>
       <c r="E103" t="n">
-        <v>0.001494117906742187</v>
+        <v>0.001496791718870067</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.03349783793682448</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9996752496876327</v>
+        <v>0.9997564666505927</v>
       </c>
       <c r="C104" t="n">
-        <v>26511192322.84706</v>
+        <v>25414680533.20924</v>
       </c>
       <c r="D104" t="n">
-        <v>65345701967.11671</v>
+        <v>65338517247.26141</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001496791718870103</v>
+        <v>0.001497187583694088</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.01099493867081636</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9997564666505927</v>
+        <v>1.000923478218214</v>
       </c>
       <c r="C105" t="n">
-        <v>25414680533.20924</v>
+        <v>23338998168.71224</v>
       </c>
       <c r="D105" t="n">
-        <v>65338517247.26141</v>
+        <v>65432655693.52283</v>
       </c>
       <c r="E105" t="n">
-        <v>0.001497187583694123</v>
+        <v>0.001499466409903924</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1440780266028341</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>1.000923478218214</v>
+        <v>1.000362069422928</v>
       </c>
       <c r="C106" t="n">
-        <v>23338998168.71224</v>
+        <v>33916231626.97688</v>
       </c>
       <c r="D106" t="n">
-        <v>65432655693.52283</v>
+        <v>65361591999.46574</v>
       </c>
       <c r="E106" t="n">
-        <v>0.00149946640990396</v>
+        <v>0.001498803830675513</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.1086058533065537</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>1.000362069422928</v>
+        <v>0.9999910349806024</v>
       </c>
       <c r="C107" t="n">
-        <v>33916231626.97688</v>
+        <v>32619584473.59502</v>
       </c>
       <c r="D107" t="n">
-        <v>65361591999.46574</v>
+        <v>65366405161.82076</v>
       </c>
       <c r="E107" t="n">
-        <v>0.001498803830675548</v>
+        <v>0.001499100711707964</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.007363900125101353</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9999910349806024</v>
+        <v>1.001103159665547</v>
       </c>
       <c r="C108" t="n">
-        <v>32619584473.59502</v>
+        <v>40073068049.0051</v>
       </c>
       <c r="D108" t="n">
-        <v>65366405161.82076</v>
+        <v>65511131600.92582</v>
       </c>
       <c r="E108" t="n">
-        <v>0.001499100711708</v>
+        <v>0.001504807650631379</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.2214079828113169</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>1.001103159665547</v>
+        <v>1.000496085709395</v>
       </c>
       <c r="C109" t="n">
-        <v>40073068049.0051</v>
+        <v>30289334225.19933</v>
       </c>
       <c r="D109" t="n">
-        <v>65511131600.92582</v>
+        <v>65641200262.3192</v>
       </c>
       <c r="E109" t="n">
-        <v>0.001504807650631414</v>
+        <v>0.001505339708528816</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1985443667584796</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>1.000496085709395</v>
+        <v>1.000464767456141</v>
       </c>
       <c r="C110" t="n">
-        <v>30289334225.19933</v>
+        <v>27666464715.01044</v>
       </c>
       <c r="D110" t="n">
-        <v>65641200262.3192</v>
+        <v>65388426943.75712</v>
       </c>
       <c r="E110" t="n">
-        <v>0.001505339708528852</v>
+        <v>0.00150536819474391</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.3850833280804378</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>1.000464767456141</v>
+        <v>1.001017510359532</v>
       </c>
       <c r="C111" t="n">
-        <v>27666464715.01044</v>
+        <v>20407865657.883</v>
       </c>
       <c r="D111" t="n">
-        <v>65388426943.75712</v>
+        <v>65769558099.30616</v>
       </c>
       <c r="E111" t="n">
-        <v>0.001505368194743946</v>
+        <v>0.001511252691461143</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.58287249497051</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>1.001017510359532</v>
+        <v>1.001229972459558</v>
       </c>
       <c r="C112" t="n">
-        <v>20407865657.883</v>
+        <v>22242975524.12063</v>
       </c>
       <c r="D112" t="n">
-        <v>65769558099.30616</v>
+        <v>65557951753.47318</v>
       </c>
       <c r="E112" t="n">
-        <v>0.001511252691461178</v>
+        <v>0.00151868348305152</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.321739041508351</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>1.001229972459558</v>
+        <v>1.000762435871249</v>
       </c>
       <c r="C113" t="n">
-        <v>22242975524.12063</v>
+        <v>29795721412.54028</v>
       </c>
       <c r="D113" t="n">
-        <v>65557951753.47318</v>
+        <v>65546686928.49787</v>
       </c>
       <c r="E113" t="n">
-        <v>0.001518683483051555</v>
+        <v>0.001516009294148764</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.01718300324217159</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>1.000762435871249</v>
+        <v>1.000578215279545</v>
       </c>
       <c r="C114" t="n">
-        <v>29795721412.54028</v>
+        <v>26621802985.98367</v>
       </c>
       <c r="D114" t="n">
-        <v>65546686928.49787</v>
+        <v>65558601840.21761</v>
       </c>
       <c r="E114" t="n">
-        <v>0.001516009294148799</v>
+        <v>0.001512210587792863</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.01817774822507889</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>1.000578215279545</v>
+        <v>1.000401025982637</v>
       </c>
       <c r="C115" t="n">
-        <v>26621802985.98367</v>
+        <v>26719301846.90856</v>
       </c>
       <c r="D115" t="n">
-        <v>65558601840.21761</v>
+        <v>65717867682.57215</v>
       </c>
       <c r="E115" t="n">
-        <v>0.001512210587792898</v>
+        <v>0.001511622812230695</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.2429366061569072</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>1.000401025982637</v>
+        <v>0.9999380331646442</v>
       </c>
       <c r="C116" t="n">
-        <v>26719301846.90856</v>
+        <v>27612891122.21617</v>
       </c>
       <c r="D116" t="n">
-        <v>65717867682.57215</v>
+        <v>65681144306.21768</v>
       </c>
       <c r="E116" t="n">
-        <v>0.001511622812230731</v>
+        <v>0.001511643952065255</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.05588035286210324</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9999380331646442</v>
+        <v>1.001075859926908</v>
       </c>
       <c r="C117" t="n">
-        <v>27612891122.21617</v>
+        <v>27603803218.88757</v>
       </c>
       <c r="D117" t="n">
-        <v>65681144306.21768</v>
+        <v>65770950095.57288</v>
       </c>
       <c r="E117" t="n">
-        <v>0.001511643952065291</v>
+        <v>0.000797471515576785</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.1367299402344591</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>1.001075859926908</v>
+        <v>0.9996724421810115</v>
       </c>
       <c r="C118" t="n">
-        <v>27603803218.88757</v>
+        <v>16962637002.47195</v>
       </c>
       <c r="D118" t="n">
-        <v>65770950095.57288</v>
+        <v>65729244224.59175</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0007974715155768522</v>
+        <v>0.0008117627376377038</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.06341077773777126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9996724421810115</v>
+        <v>1.000525777334811</v>
       </c>
       <c r="C119" t="n">
-        <v>16962637002.47195</v>
+        <v>17480426954.68295</v>
       </c>
       <c r="D119" t="n">
-        <v>65729244224.59175</v>
+        <v>65766093056.06259</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0008117627376377697</v>
+        <v>0.0005886504150914192</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.05606154749768777</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>1.000525777334811</v>
+        <v>0.9993431706535874</v>
       </c>
       <c r="C120" t="n">
-        <v>17480426954.68295</v>
+        <v>28341377733.83306</v>
       </c>
       <c r="D120" t="n">
-        <v>65766093056.06259</v>
+        <v>65688467049.99374</v>
       </c>
       <c r="E120" t="n">
-        <v>0.00058865041509151</v>
+        <v>0.0006159565018567758</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.1180334766164082</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9993431706535874</v>
+        <v>0.9997095707071204</v>
       </c>
       <c r="C121" t="n">
-        <v>28341377733.83306</v>
+        <v>42878758919.11892</v>
       </c>
       <c r="D121" t="n">
-        <v>65688467049.99374</v>
+        <v>65815203375.07555</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0006159565018568627</v>
+        <v>0.0006332828142801004</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.1929354280491236</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9997095707071204</v>
+        <v>1.000156186305869</v>
       </c>
       <c r="C122" t="n">
-        <v>42878758919.11892</v>
+        <v>34288915681.55759</v>
       </c>
       <c r="D122" t="n">
-        <v>65815203375.07555</v>
+        <v>65978794246.08342</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0006332828142801849</v>
+        <v>0.0006272584609911737</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.2485609139207368</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>1.000156186305869</v>
+        <v>0.9986233990493187</v>
       </c>
       <c r="C123" t="n">
-        <v>34288915681.55759</v>
+        <v>27062224028.08238</v>
       </c>
       <c r="D123" t="n">
-        <v>65978794246.08342</v>
+        <v>65997016215.3531</v>
       </c>
       <c r="E123" t="n">
-        <v>0.000627258460991259</v>
+        <v>0.0007073063066900766</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.02761791796574986</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9986233990493187</v>
+        <v>0.9987556722532764</v>
       </c>
       <c r="C124" t="n">
-        <v>27062224028.08238</v>
+        <v>33749705716.2375</v>
       </c>
       <c r="D124" t="n">
-        <v>65997016215.3531</v>
+        <v>65770714186.31364</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0007073063066901523</v>
+        <v>0.0007541853226873837</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.3428973641793398</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9987556722532764</v>
+        <v>1.001305042389851</v>
       </c>
       <c r="C125" t="n">
-        <v>33749705716.2375</v>
+        <v>22424852850.92593</v>
       </c>
       <c r="D125" t="n">
-        <v>65770714186.31364</v>
+        <v>66069871457.42192</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0007541853226874548</v>
+        <v>0.0007357755335141316</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.4548487496438547</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>1.001305042389851</v>
+        <v>1.000507519623629</v>
       </c>
       <c r="C126" t="n">
-        <v>22424852850.92593</v>
+        <v>14641156832.51097</v>
       </c>
       <c r="D126" t="n">
-        <v>66069871457.42192</v>
+        <v>66163136479.42052</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0007357755335142043</v>
+        <v>0.0007367364111538389</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1411611978974436</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>1.000507519623629</v>
+        <v>0.9994192299019654</v>
       </c>
       <c r="C127" t="n">
-        <v>14641156832.51097</v>
+        <v>22583858366.23551</v>
       </c>
       <c r="D127" t="n">
-        <v>66163136479.42052</v>
+        <v>66174433958.50008</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0007367364111539116</v>
+        <v>0.0007541222843508237</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.01707518669868957</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9994192299019654</v>
+        <v>1.000108759716916</v>
       </c>
       <c r="C128" t="n">
-        <v>22583858366.23551</v>
+        <v>28627896473.67646</v>
       </c>
       <c r="D128" t="n">
-        <v>66174433958.50008</v>
+        <v>66210497794.15593</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0007541222843508946</v>
+        <v>0.000720587795409725</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.05449813998932296</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>1.000108759716916</v>
+        <v>1.000621452955223</v>
       </c>
       <c r="C129" t="n">
-        <v>28627896473.67646</v>
+        <v>19605882459.76646</v>
       </c>
       <c r="D129" t="n">
-        <v>66210497794.15593</v>
+        <v>66222410592.69341</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0007205877954097993</v>
+        <v>0.0007119504845506667</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.01799231078809527</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>1.000621452955223</v>
+        <v>1.000557578045453</v>
       </c>
       <c r="C130" t="n">
-        <v>19605882459.76646</v>
+        <v>21251719991.77933</v>
       </c>
       <c r="D130" t="n">
-        <v>66222410592.69341</v>
+        <v>66253234080.76853</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0007119504845507419</v>
+        <v>0.0006785437261271405</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.04654540328457024</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>1.000557578045453</v>
+        <v>1.00048750130391</v>
       </c>
       <c r="C131" t="n">
-        <v>21251719991.77933</v>
+        <v>21612186149.70171</v>
       </c>
       <c r="D131" t="n">
-        <v>66253234080.76853</v>
+        <v>66290527437.95575</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0006785437261272193</v>
+        <v>0.0006783828223345193</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.05628911207828935</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>1.00048750130391</v>
+        <v>1.000493371410415</v>
       </c>
       <c r="C132" t="n">
-        <v>21612186149.70171</v>
+        <v>11471482054.97375</v>
       </c>
       <c r="D132" t="n">
-        <v>66290527437.95575</v>
+        <v>66280331784.85776</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0006783828223345983</v>
+        <v>0.0006772792276910701</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.01538025641376617</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>1.000493371410415</v>
+        <v>1.000801653368818</v>
       </c>
       <c r="C133" t="n">
-        <v>11471482054.97375</v>
+        <v>15329932244.94944</v>
       </c>
       <c r="D133" t="n">
-        <v>66280331784.85776</v>
+        <v>66260084337.19826</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0006772792276911492</v>
+        <v>0.0006744600035853543</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.0305481990120704</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>1.000801653368818</v>
+        <v>1.000160200778456</v>
       </c>
       <c r="C134" t="n">
-        <v>15329932244.94944</v>
+        <v>15260309705.26867</v>
       </c>
       <c r="D134" t="n">
-        <v>66260084337.19826</v>
+        <v>66289979631.46615</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0006744600035854337</v>
+        <v>0.0006670987752362185</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.045118104763886</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>1.000160200778456</v>
+        <v>0.999994355125136</v>
       </c>
       <c r="C135" t="n">
-        <v>15260309705.26867</v>
+        <v>20212268347.18246</v>
       </c>
       <c r="D135" t="n">
-        <v>66289979631.46615</v>
+        <v>66241360621.11682</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0006670987752362987</v>
+        <v>0.0006596289674925251</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.07334292546116172</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>0.999994355125136</v>
+        <v>0.9998142789375868</v>
       </c>
       <c r="C136" t="n">
-        <v>20212268347.18246</v>
+        <v>23443876809.13928</v>
       </c>
       <c r="D136" t="n">
-        <v>66241360621.11682</v>
+        <v>66232030177.68255</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0006596289674926062</v>
+        <v>0.0006650891993035251</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.01408552503570082</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9998142789375868</v>
+        <v>1.000304401961668</v>
       </c>
       <c r="C137" t="n">
-        <v>23443876809.13928</v>
+        <v>20857568338.99613</v>
       </c>
       <c r="D137" t="n">
-        <v>66232030177.68255</v>
+        <v>66255815696.12944</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0006650891993036055</v>
+        <v>0.0006630060983253358</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.03591241032938619</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>1.000304401961668</v>
+        <v>1.000044434295448</v>
       </c>
       <c r="C138" t="n">
-        <v>20857568338.99613</v>
+        <v>20613839547.6005</v>
       </c>
       <c r="D138" t="n">
-        <v>66255815696.12944</v>
+        <v>66279043570.31453</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0006630060983254165</v>
+        <v>0.0006456830733179643</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.03505786464332861</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>1.000044434295448</v>
+        <v>1.00012617702721</v>
       </c>
       <c r="C139" t="n">
-        <v>20613839547.6005</v>
+        <v>13764722594.02165</v>
       </c>
       <c r="D139" t="n">
-        <v>66279043570.31453</v>
+        <v>66226451754.38176</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0006456830733180471</v>
+        <v>0.0006442664084035821</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.07934908698098431</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>1.00012617702721</v>
+        <v>1.000563732582195</v>
       </c>
       <c r="C140" t="n">
-        <v>13764722594.02165</v>
+        <v>11425365866.76583</v>
       </c>
       <c r="D140" t="n">
-        <v>66226451754.38176</v>
+        <v>66301858477.74817</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0006442664084036652</v>
+        <v>0.0006457439551569168</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1138619409146058</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>1.000563732582195</v>
+        <v>1.000178853841758</v>
       </c>
       <c r="C141" t="n">
-        <v>11425365866.76583</v>
+        <v>17265085804.68369</v>
       </c>
       <c r="D141" t="n">
-        <v>66301858477.74817</v>
+        <v>66223251669.25232</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0006457439551569998</v>
+        <v>0.0006287013145429412</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.118558982056638</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>1.000178853841758</v>
+        <v>1.00005401334794</v>
       </c>
       <c r="C142" t="n">
-        <v>17265085804.68369</v>
+        <v>19667731491.26068</v>
       </c>
       <c r="D142" t="n">
-        <v>66223251669.25232</v>
+        <v>66274058933.38085</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0006287013145430265</v>
+        <v>0.0005987767686972042</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.07672118606056877</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>1.00005401334794</v>
+        <v>1.000168592132514</v>
       </c>
       <c r="C143" t="n">
-        <v>19667731491.26068</v>
+        <v>26466084967.55608</v>
       </c>
       <c r="D143" t="n">
-        <v>66274058933.38085</v>
+        <v>66245545660.29001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0005987767686972936</v>
+        <v>0.0005882212194928016</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.04302327871529288</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>1.000168592132514</v>
+        <v>1.000022743279735</v>
       </c>
       <c r="C144" t="n">
-        <v>26466084967.55608</v>
+        <v>20090153260.79848</v>
       </c>
       <c r="D144" t="n">
-        <v>66245545660.29001</v>
+        <v>66278648652.01702</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0005882212194928926</v>
+        <v>0.0005829861039432925</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.04997013972345421</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>1.000022743279735</v>
+        <v>1.000002357483155</v>
       </c>
       <c r="C145" t="n">
-        <v>20090153260.79848</v>
+        <v>26274408965.5278</v>
       </c>
       <c r="D145" t="n">
-        <v>66278648652.01702</v>
+        <v>66263334312.75015</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0005829861039433844</v>
+        <v>0.000581163570666841</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.02310599201753583</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>1.000002357483155</v>
+        <v>1.000490589115965</v>
       </c>
       <c r="C146" t="n">
-        <v>26274408965.5278</v>
+        <v>13126628968.52074</v>
       </c>
       <c r="D146" t="n">
-        <v>66263334312.75015</v>
+        <v>66272451611.88523</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0005811635706669332</v>
+        <v>0.0005840162121437931</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01375919160970795</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>1.000490589115965</v>
+        <v>1.000345081317441</v>
       </c>
       <c r="C147" t="n">
-        <v>13126628968.52074</v>
+        <v>16557290439.47853</v>
       </c>
       <c r="D147" t="n">
-        <v>66272451611.88523</v>
+        <v>66295359783.54114</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0005840162121438847</v>
+        <v>0.0005581429998418987</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.03456665793815095</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>1.000345081317441</v>
+        <v>1.000744690234985</v>
       </c>
       <c r="C148" t="n">
-        <v>16557290439.47853</v>
+        <v>38371608148.87695</v>
       </c>
       <c r="D148" t="n">
-        <v>66295359783.54114</v>
+        <v>66315047027.9915</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0005581429998419945</v>
+        <v>0.0005633361128538996</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.02969626307880446</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>1.000744690234985</v>
+        <v>1.000173349969618</v>
       </c>
       <c r="C149" t="n">
-        <v>38371608148.87695</v>
+        <v>30382590558.23174</v>
       </c>
       <c r="D149" t="n">
-        <v>66315047027.9915</v>
+        <v>66307828854.78396</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0005633361128539946</v>
+        <v>0.0005588362468245353</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.01088466876076888</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>1.000173349969618</v>
+        <v>1.000997023435981</v>
       </c>
       <c r="C150" t="n">
-        <v>30382590558.23174</v>
+        <v>32900275874.21131</v>
       </c>
       <c r="D150" t="n">
-        <v>66307828854.78396</v>
+        <v>65470424457.41479</v>
       </c>
       <c r="E150" t="n">
-        <v>0.000558836246824631</v>
+        <v>0.0005595094611854964</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-1.262904263089526</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>1.000997023435981</v>
+        <v>1.000375015855062</v>
       </c>
       <c r="C151" t="n">
-        <v>32900275874.21131</v>
+        <v>56073842995.37737</v>
       </c>
       <c r="D151" t="n">
-        <v>65470424457.41479</v>
+        <v>66278004907.72334</v>
       </c>
       <c r="E151" t="n">
-        <v>0.000559509461185592</v>
+        <v>0.0005529145657112655</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.233504222710291</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>1.000375015855062</v>
+        <v>1.000600970171644</v>
       </c>
       <c r="C152" t="n">
-        <v>56073842995.37737</v>
+        <v>47848357206.29852</v>
       </c>
       <c r="D152" t="n">
-        <v>66278004907.72334</v>
+        <v>66317495370.29115</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0005529145657113624</v>
+        <v>0.0005572780040400252</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.05958305869764313</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>1.000600970171644</v>
+        <v>1.000501824103198</v>
       </c>
       <c r="C153" t="n">
-        <v>47848357206.29852</v>
+        <v>67079943134.02112</v>
       </c>
       <c r="D153" t="n">
-        <v>66317495370.29115</v>
+        <v>66305842236.8753</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0005572780040401211</v>
+        <v>0.000469356428989024</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.01757173329719475</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>1.000501824103198</v>
+        <v>1.000089816871218</v>
       </c>
       <c r="C154" t="n">
-        <v>67079943134.02112</v>
+        <v>33492739683.69563</v>
       </c>
       <c r="D154" t="n">
-        <v>66305842236.8753</v>
+        <v>66370266581.06579</v>
       </c>
       <c r="E154" t="n">
-        <v>0.000469356428989138</v>
+        <v>0.0003720089087253061</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.09716239477108868</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>1.000089816871218</v>
+        <v>1.000130568283826</v>
       </c>
       <c r="C155" t="n">
-        <v>33492739683.69563</v>
+        <v>44340026378.20709</v>
       </c>
       <c r="D155" t="n">
-        <v>66370266581.06579</v>
+        <v>66315382010.56667</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0003720089087254499</v>
+        <v>0.0003252860628939508</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.08269451567153308</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>1.000130568283826</v>
+        <v>1.00015256862146</v>
       </c>
       <c r="C156" t="n">
-        <v>44340026378.20709</v>
+        <v>40916940820.36234</v>
       </c>
       <c r="D156" t="n">
-        <v>66315382010.56667</v>
+        <v>66472290219.18532</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0003252860628941153</v>
+        <v>0.00032377915118842</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.2366090699645662</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>1.00015256862146</v>
+        <v>1.0012953124771</v>
       </c>
       <c r="C157" t="n">
-        <v>40916940820.36234</v>
+        <v>52187459970.83677</v>
       </c>
       <c r="D157" t="n">
-        <v>66472290219.18532</v>
+        <v>66549279927.0732</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0003237791511885853</v>
+        <v>0.0003320318538821558</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.1158222586193691</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>1.0012953124771</v>
+        <v>1.00044745458617</v>
       </c>
       <c r="C158" t="n">
-        <v>52187459970.83677</v>
+        <v>33784531494.32876</v>
       </c>
       <c r="D158" t="n">
-        <v>66549279927.0732</v>
+        <v>66542669715.76394</v>
       </c>
       <c r="E158" t="n">
-        <v>0.000332031853882317</v>
+        <v>0.0003294098933072304</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.009932806660717386</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>1.00044745458617</v>
+        <v>1.000731083019482</v>
       </c>
       <c r="C159" t="n">
-        <v>33784531494.32876</v>
+        <v>46265487171.21661</v>
       </c>
       <c r="D159" t="n">
-        <v>66542669715.76394</v>
+        <v>66542663619.61765</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0003294098933073928</v>
+        <v>0.0003330216199998452</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-9.161258951451146e-06</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>1.000731083019482</v>
+        <v>1.000022597621335</v>
       </c>
       <c r="C160" t="n">
-        <v>46265487171.21661</v>
+        <v>52081373665.21727</v>
       </c>
       <c r="D160" t="n">
-        <v>66542663619.61765</v>
+        <v>66376505551.62937</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0003330216200000059</v>
+        <v>0.0003364741359073166</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.2497015582936468</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>1.000022597621335</v>
+        <v>1.000846771370109</v>
       </c>
       <c r="C161" t="n">
-        <v>52081373665.21727</v>
+        <v>42222010836.61702</v>
       </c>
       <c r="D161" t="n">
-        <v>66376505551.62937</v>
+        <v>66739726193.22115</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0003364741359074756</v>
+        <v>0.0003479617221970939</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.547212659921148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>1.000846771370109</v>
+        <v>1.00210849557381</v>
       </c>
       <c r="C162" t="n">
-        <v>42222010836.61702</v>
+        <v>45160860744.9084</v>
       </c>
       <c r="D162" t="n">
-        <v>66739726193.22115</v>
+        <v>66692161993.52795</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0003479617221972477</v>
+        <v>0.0004726053161547688</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.07126819722858002</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>1.00210849557381</v>
+        <v>0.9996823898445337</v>
       </c>
       <c r="C163" t="n">
-        <v>45160860744.9084</v>
+        <v>43370440803.62482</v>
       </c>
       <c r="D163" t="n">
-        <v>66692161993.52795</v>
+        <v>66885882203.16084</v>
       </c>
       <c r="E163" t="n">
-        <v>0.000472605316154882</v>
+        <v>0.0004846172784316711</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.2904692303297818</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9996823898445337</v>
+        <v>1.002001280346569</v>
       </c>
       <c r="C164" t="n">
-        <v>43370440803.62482</v>
+        <v>51482340092.66992</v>
       </c>
       <c r="D164" t="n">
-        <v>66885882203.16084</v>
+        <v>67139928234.07279</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0004846172784317815</v>
+        <v>0.0005664857533341458</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.3798201093323517</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>1.002001280346569</v>
+        <v>1.000460898497005</v>
       </c>
       <c r="C165" t="n">
-        <v>51482340092.66992</v>
+        <v>45669776007.21412</v>
       </c>
       <c r="D165" t="n">
-        <v>67139928234.07279</v>
+        <v>67240886056.86584</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0005664857533342402</v>
+        <v>0.0005603798920439586</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1503692742135243</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>1.000460898497005</v>
+        <v>1.001232445331587</v>
       </c>
       <c r="C166" t="n">
-        <v>45669776007.21412</v>
+        <v>46018664576.11246</v>
       </c>
       <c r="D166" t="n">
-        <v>67240886056.86584</v>
+        <v>67373574300.06389</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0005603798920440541</v>
+        <v>0.0005647679578923949</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1973326810206455</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>1.001232445331587</v>
+        <v>1.000894574927383</v>
       </c>
       <c r="C167" t="n">
-        <v>46018664576.11246</v>
+        <v>28907188582.26992</v>
       </c>
       <c r="D167" t="n">
-        <v>67373574300.06389</v>
+        <v>67569736303.8954</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0005647679578924898</v>
+        <v>0.0005681140439288176</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.2911557029138256</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>1.000894574927383</v>
+        <v>1.001292568198897</v>
       </c>
       <c r="C168" t="n">
-        <v>28907188582.26992</v>
+        <v>44842327473.84293</v>
       </c>
       <c r="D168" t="n">
-        <v>67569736303.8954</v>
+        <v>67687123254.52642</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0005681140439289118</v>
+        <v>0.0005779910123050023</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1737271107631333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>1.001292568198897</v>
+        <v>1.001420149501136</v>
       </c>
       <c r="C169" t="n">
-        <v>44842327473.84293</v>
+        <v>49267517476.44744</v>
       </c>
       <c r="D169" t="n">
-        <v>67687123254.52642</v>
+        <v>67779797060.88225</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0005779910123050949</v>
+        <v>0.0005927633900156469</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.136914972745017</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>1.001420149501136</v>
+        <v>1.000740238220401</v>
       </c>
       <c r="C170" t="n">
-        <v>49267517476.44744</v>
+        <v>41165769630.83614</v>
       </c>
       <c r="D170" t="n">
-        <v>67779797060.88225</v>
+        <v>67834965073.44664</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0005927633900157371</v>
+        <v>0.0005932572377348379</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.08139300345624267</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>1.000740238220401</v>
+        <v>1.001151541205038</v>
       </c>
       <c r="C171" t="n">
-        <v>41165769630.83614</v>
+        <v>47555216435.57039</v>
       </c>
       <c r="D171" t="n">
-        <v>67834965073.44664</v>
+        <v>67846146300.35402</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0005932572377349282</v>
+        <v>0.0005956369372372635</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.01648298468979181</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>1.001151541205038</v>
+        <v>1.002126184049376</v>
       </c>
       <c r="C172" t="n">
-        <v>47555216435.57039</v>
+        <v>57189832973.14415</v>
       </c>
       <c r="D172" t="n">
-        <v>67846146300.35402</v>
+        <v>67892950614.04458</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0005956369372373533</v>
+        <v>0.0006436460548231252</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.06898595755662207</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>1.002126184049376</v>
+        <v>1.000362999890918</v>
       </c>
       <c r="C173" t="n">
-        <v>57189832973.14415</v>
+        <v>50793632471.50201</v>
       </c>
       <c r="D173" t="n">
-        <v>67892950614.04458</v>
+        <v>68042153687.37086</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0006436460548232084</v>
+        <v>0.0006389866051935957</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.2197622462668747</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>1.000362999890918</v>
+        <v>1.001196184341429</v>
       </c>
       <c r="C174" t="n">
-        <v>50793632471.50201</v>
+        <v>29838048924.02014</v>
       </c>
       <c r="D174" t="n">
-        <v>68042153687.37086</v>
+        <v>67944713474.21684</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0006389866051936794</v>
+        <v>0.0006310291194859404</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.1432056568957618</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>1.001196184341429</v>
+        <v>1.000267950858493</v>
       </c>
       <c r="C175" t="n">
-        <v>29838048924.02014</v>
+        <v>37086074965.91123</v>
       </c>
       <c r="D175" t="n">
-        <v>67944713474.21684</v>
+        <v>68114172206.9055</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0006310291194860252</v>
+        <v>0.0006219189821892404</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.249406795648599</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>1.000267950858493</v>
+        <v>0.9999977658204721</v>
       </c>
       <c r="C176" t="n">
-        <v>37086074965.91123</v>
+        <v>40249156561.89053</v>
       </c>
       <c r="D176" t="n">
-        <v>68114172206.9055</v>
+        <v>68043274844.16859</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0006219189821893265</v>
+        <v>0.0006357116751818245</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.1040860667315346</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>0.9999977658204721</v>
+        <v>1.000726912525441</v>
       </c>
       <c r="C177" t="n">
-        <v>40249156561.89053</v>
+        <v>48461129566.93977</v>
       </c>
       <c r="D177" t="n">
-        <v>68043274844.16859</v>
+        <v>68265208037.89304</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0006357116751819086</v>
+        <v>0.0006312076565967883</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.3261647741569229</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>1.000726912525441</v>
+        <v>1.000281051527416</v>
       </c>
       <c r="C178" t="n">
-        <v>48461129566.93977</v>
+        <v>49961937748.3102</v>
       </c>
       <c r="D178" t="n">
-        <v>68265208037.89304</v>
+        <v>68160499147.64552</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0006312076565968731</v>
+        <v>0.0006372187663327468</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-0.1533854407788637</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>1.000281051527416</v>
+        <v>1.000551271124314</v>
       </c>
       <c r="C179" t="n">
-        <v>49961937748.3102</v>
+        <v>64697984566.80292</v>
       </c>
       <c r="D179" t="n">
-        <v>68160499147.64552</v>
+        <v>68193338996.94423</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0006372187663328308</v>
+        <v>0.0006292422849298688</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.04818017724250723</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>1.000551271124314</v>
+        <v>0.9998770257536755</v>
       </c>
       <c r="C180" t="n">
-        <v>64697984566.80292</v>
+        <v>52760189299.02264</v>
       </c>
       <c r="D180" t="n">
-        <v>68193338996.94423</v>
+        <v>68366557129.9436</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0006292422849299538</v>
+        <v>0.0006474235717014387</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.2540103411084349</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>0.9998770257536755</v>
+        <v>1.001219522060017</v>
       </c>
       <c r="C181" t="n">
-        <v>52760189299.02264</v>
+        <v>29798554738.12227</v>
       </c>
       <c r="D181" t="n">
-        <v>68366557129.9436</v>
+        <v>68457150720.6405</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0006474235717015214</v>
+        <v>0.0006503106846466241</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.1325115590137482</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>1.001219522060017</v>
+        <v>1.000754630353583</v>
       </c>
       <c r="C182" t="n">
-        <v>29798554738.12227</v>
+        <v>32098131137.76236</v>
       </c>
       <c r="D182" t="n">
-        <v>68457150720.6405</v>
+        <v>68490999406.46062</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0006503106846467063</v>
+        <v>0.0006497256132962862</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.04944506960018469</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>1.000754630353583</v>
+        <v>1.000397470820415</v>
       </c>
       <c r="C183" t="n">
-        <v>32098131137.76236</v>
+        <v>58531239696.66817</v>
       </c>
       <c r="D183" t="n">
-        <v>68490999406.46062</v>
+        <v>68427597807.13527</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0006497256132963685</v>
+        <v>0.000651389129426173</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.09256924249141374</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>1.000397470820415</v>
+        <v>1.000703760297056</v>
       </c>
       <c r="C184" t="n">
-        <v>58531239696.66817</v>
+        <v>60633824927.9751</v>
       </c>
       <c r="D184" t="n">
-        <v>68427597807.13527</v>
+        <v>69541171926.41</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0006513891294262551</v>
+        <v>0.0006395123886941938</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.627375729911451</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>1.000703760297056</v>
+        <v>0.9998335813969325</v>
       </c>
       <c r="C185" t="n">
-        <v>60633824927.9751</v>
+        <v>56998699690.78335</v>
       </c>
       <c r="D185" t="n">
-        <v>69541171926.41</v>
+        <v>69502620730.9046</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0006395123886942775</v>
+        <v>0.0006519163325374175</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.05543650536432576</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9998335813969325</v>
+        <v>1.005370217625837</v>
       </c>
       <c r="C186" t="n">
-        <v>56998699690.78335</v>
+        <v>62944637855.55573</v>
       </c>
       <c r="D186" t="n">
-        <v>69502620730.9046</v>
+        <v>69826536196.88829</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0006519163325374996</v>
+        <v>0.001055537704503514</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.4660478447824357</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>1.005370217625837</v>
+        <v>1.000136432456962</v>
       </c>
       <c r="C187" t="n">
-        <v>62944637855.55573</v>
+        <v>64414293061.83208</v>
       </c>
       <c r="D187" t="n">
-        <v>69826536196.88829</v>
+        <v>70292722478.4183</v>
       </c>
       <c r="E187" t="n">
-        <v>0.001055537704503565</v>
+        <v>0.001063005705129684</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.6676348375859842</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>1.000136432456962</v>
+        <v>1.000518056664825</v>
       </c>
       <c r="C188" t="n">
-        <v>64414293061.83208</v>
+        <v>33905087115.017</v>
       </c>
       <c r="D188" t="n">
-        <v>70292722478.4183</v>
+        <v>70285569098.16228</v>
       </c>
       <c r="E188" t="n">
-        <v>0.001063005705129734</v>
+        <v>0.001062059555093905</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.01017655882972202</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>1.000518056664825</v>
+        <v>0.9992989455271616</v>
       </c>
       <c r="C189" t="n">
-        <v>33905087115.017</v>
+        <v>45617031107.12913</v>
       </c>
       <c r="D189" t="n">
-        <v>70285569098.16228</v>
+        <v>70451072573.33218</v>
       </c>
       <c r="E189" t="n">
-        <v>0.001062059555093956</v>
+        <v>0.001101232066112892</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.2354729104330877</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9992989455271616</v>
+        <v>0.9994061411430225</v>
       </c>
       <c r="C190" t="n">
-        <v>45617031107.12913</v>
+        <v>52168477098.17428</v>
       </c>
       <c r="D190" t="n">
-        <v>70451072573.33218</v>
+        <v>70418439340.4688</v>
       </c>
       <c r="E190" t="n">
-        <v>0.00110123206611294</v>
+        <v>0.001122728268565251</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.04632042021704974</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9994061411430225</v>
+        <v>1.000438699565148</v>
       </c>
       <c r="C191" t="n">
-        <v>52168477098.17428</v>
+        <v>52637879766.99426</v>
       </c>
       <c r="D191" t="n">
-        <v>70418439340.4688</v>
+        <v>70456590555.39325</v>
       </c>
       <c r="E191" t="n">
-        <v>0.001122728268565298</v>
+        <v>0.00112497005045</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.05417787625197068</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>1.000438699565148</v>
+        <v>0.999477602329776</v>
       </c>
       <c r="C192" t="n">
-        <v>52637879766.99426</v>
+        <v>51233553288.68909</v>
       </c>
       <c r="D192" t="n">
-        <v>70456590555.39325</v>
+        <v>70766136200.36801</v>
       </c>
       <c r="E192" t="n">
-        <v>0.001124970050450047</v>
+        <v>0.001123201163906787</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.4393423561013687</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>0.999477602329776</v>
+        <v>1.000822882333603</v>
       </c>
       <c r="C193" t="n">
-        <v>51233553288.68909</v>
+        <v>49981035028.41502</v>
       </c>
       <c r="D193" t="n">
-        <v>70766136200.36801</v>
+        <v>70680138527.9615</v>
       </c>
       <c r="E193" t="n">
-        <v>0.001123201163906834</v>
+        <v>0.001105781432303665</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.1215237640826095</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>1.000822882333603</v>
+        <v>0.9998231210443658</v>
       </c>
       <c r="C194" t="n">
-        <v>49981035028.41502</v>
+        <v>49594083160.91451</v>
       </c>
       <c r="D194" t="n">
-        <v>70680138527.9615</v>
+        <v>70811129790.09048</v>
       </c>
       <c r="E194" t="n">
-        <v>0.001105781432303714</v>
+        <v>0.001093266701189992</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.185329662415934</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9998231210443658</v>
+        <v>1.000210050013831</v>
       </c>
       <c r="C195" t="n">
-        <v>49594083160.91451</v>
+        <v>30555751037.08116</v>
       </c>
       <c r="D195" t="n">
-        <v>70811129790.09048</v>
+        <v>70832978696.81664</v>
       </c>
       <c r="E195" t="n">
-        <v>0.001093266701190041</v>
+        <v>0.0010960563944027</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.03085518730023828</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>1.000210050013831</v>
+        <v>0.9998056785140832</v>
       </c>
       <c r="C196" t="n">
-        <v>30555751037.08116</v>
+        <v>30368284334.60482</v>
       </c>
       <c r="D196" t="n">
-        <v>70832978696.81664</v>
+        <v>70797067115.66945</v>
       </c>
       <c r="E196" t="n">
-        <v>0.001096056394402749</v>
+        <v>0.001102389236788898</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.05069895662710433</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9998056785140832</v>
+        <v>1.000581642751189</v>
       </c>
       <c r="C197" t="n">
-        <v>30368284334.60482</v>
+        <v>35987227108.10623</v>
       </c>
       <c r="D197" t="n">
-        <v>70797067115.66945</v>
+        <v>70918517287.47423</v>
       </c>
       <c r="E197" t="n">
-        <v>0.001102389236788946</v>
+        <v>0.001101345768683823</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.1715468970011846</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>1.000581642751189</v>
+        <v>0.9985425261696153</v>
       </c>
       <c r="C198" t="n">
-        <v>35987227108.10623</v>
+        <v>32718069236.40842</v>
       </c>
       <c r="D198" t="n">
-        <v>70918517287.47423</v>
+        <v>70926090372.52197</v>
       </c>
       <c r="E198" t="n">
-        <v>0.001101345768683871</v>
+        <v>0.001157021382037535</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.01067857216621171</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9985425261696153</v>
+        <v>0.9998604345550359</v>
       </c>
       <c r="C199" t="n">
-        <v>32718069236.40842</v>
+        <v>39912620572.02337</v>
       </c>
       <c r="D199" t="n">
-        <v>70926090372.52197</v>
+        <v>71094389016.40314</v>
       </c>
       <c r="E199" t="n">
-        <v>0.001157021382037581</v>
+        <v>0.001150887201054649</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.2372873550441357</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9998604345550359</v>
+        <v>1.000015658074715</v>
       </c>
       <c r="C200" t="n">
-        <v>39912620572.02337</v>
+        <v>34398789164.08141</v>
       </c>
       <c r="D200" t="n">
-        <v>71094389016.40314</v>
+        <v>71089143266.10973</v>
       </c>
       <c r="E200" t="n">
-        <v>0.001150887201054695</v>
+        <v>0.001152897065635243</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.007378571454075278</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>1.000015658074715</v>
+        <v>1.000749100736291</v>
       </c>
       <c r="C201" t="n">
-        <v>34398789164.08141</v>
+        <v>44302959604.19779</v>
       </c>
       <c r="D201" t="n">
-        <v>71089143266.10973</v>
+        <v>71194848065.08534</v>
       </c>
       <c r="E201" t="n">
-        <v>0.00115289706563529</v>
+        <v>0.001146881032529184</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.1486933083156394</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>1.000749100736291</v>
+        <v>1.001415496893049</v>
       </c>
       <c r="C202" t="n">
-        <v>44302959604.19779</v>
+        <v>19021734087.46999</v>
       </c>
       <c r="D202" t="n">
-        <v>71194848065.08534</v>
+        <v>71520391290.37891</v>
       </c>
       <c r="E202" t="n">
-        <v>0.001146881032529231</v>
+        <v>0.001117934693052003</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.4572567175028741</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>1.001415496893049</v>
+        <v>1.000188286083384</v>
       </c>
       <c r="C203" t="n">
-        <v>19021734087.46999</v>
+        <v>20651547846.01168</v>
       </c>
       <c r="D203" t="n">
-        <v>71520391290.37891</v>
+        <v>71463081677.24242</v>
       </c>
       <c r="E203" t="n">
-        <v>0.001117934693052051</v>
+        <v>0.001118704374675569</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.08013045245209849</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>1.000188286083384</v>
+        <v>1.000361247332358</v>
       </c>
       <c r="C204" t="n">
-        <v>20651547846.01168</v>
+        <v>27019419679.6325</v>
       </c>
       <c r="D204" t="n">
-        <v>71463081677.24242</v>
+        <v>71606102630.76941</v>
       </c>
       <c r="E204" t="n">
-        <v>0.001118704374675617</v>
+        <v>0.001108958743701692</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.2001326421563254</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>1.000361247332358</v>
+        <v>1.000849515228971</v>
       </c>
       <c r="C205" t="n">
-        <v>27019419679.6325</v>
+        <v>37662456574.67284</v>
       </c>
       <c r="D205" t="n">
-        <v>71606102630.76941</v>
+        <v>71688065511.9664</v>
       </c>
       <c r="E205" t="n">
-        <v>0.00110895874370174</v>
+        <v>0.001111871225956612</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.1144635417732909</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>1.000849515228971</v>
+        <v>1.000015351194768</v>
       </c>
       <c r="C206" t="n">
-        <v>37662456574.67284</v>
+        <v>35716759861.88099</v>
       </c>
       <c r="D206" t="n">
-        <v>71688065511.9664</v>
+        <v>71860457290.59821</v>
       </c>
       <c r="E206" t="n">
-        <v>0.00111187122595666</v>
+        <v>0.001111652565941279</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.240474864819773</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>1.000015351194768</v>
+        <v>1.001743036848679</v>
       </c>
       <c r="C207" t="n">
-        <v>35716759861.88099</v>
+        <v>50624387739.9849</v>
       </c>
       <c r="D207" t="n">
-        <v>71860457290.59821</v>
+        <v>71814779749.86282</v>
       </c>
       <c r="E207" t="n">
-        <v>0.001111652565941328</v>
+        <v>0.00113690586481922</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-0.06356422218504187</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>1.001743036848679</v>
+        <v>1.000970044297159</v>
       </c>
       <c r="C208" t="n">
-        <v>50624387739.9849</v>
+        <v>66020694287.6996</v>
       </c>
       <c r="D208" t="n">
-        <v>71814779749.86282</v>
+        <v>72084236470.97087</v>
       </c>
       <c r="E208" t="n">
-        <v>0.001136905864819267</v>
+        <v>0.001140503930275735</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.3752106767528796</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>1.000970044297159</v>
+        <v>1.002925030239797</v>
       </c>
       <c r="C209" t="n">
-        <v>66020694287.6996</v>
+        <v>67994848432.13668</v>
       </c>
       <c r="D209" t="n">
-        <v>72084236470.97087</v>
+        <v>72265947202.17673</v>
       </c>
       <c r="E209" t="n">
-        <v>0.001140503930275781</v>
+        <v>0.001225873344348729</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.2520810930404016</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>1.002925030239797</v>
+        <v>1.007302509145363</v>
       </c>
       <c r="C210" t="n">
-        <v>67994848432.13668</v>
+        <v>52711790162.64604</v>
       </c>
       <c r="D210" t="n">
-        <v>72265947202.17673</v>
+        <v>72386888341.06775</v>
       </c>
       <c r="E210" t="n">
-        <v>0.001225873344348773</v>
+        <v>0.001731843991779534</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.1673556406209809</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>1.007302509145363</v>
+        <v>1.003659676516446</v>
       </c>
       <c r="C211" t="n">
-        <v>52711790162.64604</v>
+        <v>87780961462.05852</v>
       </c>
       <c r="D211" t="n">
-        <v>72386888341.06775</v>
+        <v>73224130980.1188</v>
       </c>
       <c r="E211" t="n">
-        <v>0.001731843991779564</v>
+        <v>0.001808269650643008</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.156621949414638</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>1.003659676516446</v>
+        <v>1.003881764774697</v>
       </c>
       <c r="C212" t="n">
-        <v>87780961462.05852</v>
+        <v>88711070851.06427</v>
       </c>
       <c r="D212" t="n">
-        <v>73224130980.1188</v>
+        <v>73662783701.2793</v>
       </c>
       <c r="E212" t="n">
-        <v>0.001808269650643037</v>
+        <v>0.001889542634129601</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.5990548679636554</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>1.003881764774697</v>
+        <v>1.00658385095692</v>
       </c>
       <c r="C213" t="n">
-        <v>88711070851.06427</v>
+        <v>80989287076.21484</v>
       </c>
       <c r="D213" t="n">
-        <v>73662783701.2793</v>
+        <v>74750701091.58803</v>
       </c>
       <c r="E213" t="n">
-        <v>0.001889542634129629</v>
+        <v>0.00214450761201517</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.476888783786001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>1.00658385095692</v>
+        <v>1.006988146721052</v>
       </c>
       <c r="C214" t="n">
-        <v>80989287076.21484</v>
+        <v>55711184030.5586</v>
       </c>
       <c r="D214" t="n">
-        <v>74750701091.58803</v>
+        <v>74845805871.10883</v>
       </c>
       <c r="E214" t="n">
-        <v>0.002144507612015195</v>
+        <v>0.002389069495919149</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1272292809725961</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>1.006988146721052</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>55711184030.5586</v>
+        <v>46955253597.99999</v>
       </c>
       <c r="D215" t="n">
-        <v>74845805871.10883</v>
+        <v>76181018246.9454</v>
       </c>
       <c r="E215" t="n">
-        <v>0.002389069495919171</v>
+        <v>0.002385515541245752</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.783950831040459</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>1.000000000000008</v>
       </c>
       <c r="C216" t="n">
-        <v>46955253597.99999</v>
+        <v>43345175884</v>
       </c>
       <c r="D216" t="n">
-        <v>76181018246.9454</v>
+        <v>76220833431.4474</v>
       </c>
       <c r="E216" t="n">
-        <v>0.002385515541245774</v>
+        <v>0.002276149508303999</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.05226391746686598</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>1.000000000000008</v>
+        <v>1.005610459439358</v>
       </c>
       <c r="C217" t="n">
-        <v>43345175884</v>
+        <v>52736294701.00001</v>
       </c>
       <c r="D217" t="n">
-        <v>76220833431.4474</v>
+        <v>76784764102.20827</v>
       </c>
       <c r="E217" t="n">
-        <v>0.002276149508304022</v>
+        <v>0.002402287942356917</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.7398642147728118</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>1.005610459439358</v>
+        <v>1.009594052227482</v>
       </c>
       <c r="C218" t="n">
-        <v>52736294701.00001</v>
+        <v>50214824170</v>
       </c>
       <c r="D218" t="n">
-        <v>76784764102.20827</v>
+        <v>76852694601.8154</v>
       </c>
       <c r="E218" t="n">
-        <v>0.002402287942356939</v>
+        <v>0.002822021228308103</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.08846872215002577</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>1.009594052227482</v>
+        <v>1.006931709512543</v>
       </c>
       <c r="C219" t="n">
-        <v>50214824170</v>
+        <v>50999818712</v>
       </c>
       <c r="D219" t="n">
-        <v>76852694601.8154</v>
+        <v>77348485075.2475</v>
       </c>
       <c r="E219" t="n">
-        <v>0.002822021228308122</v>
+        <v>0.002939343798629754</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.6451178790813472</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>1.006931709512543</v>
+        <v>1.007806772921929</v>
       </c>
       <c r="C220" t="n">
-        <v>50999818712</v>
+        <v>51748798673.78007</v>
       </c>
       <c r="D220" t="n">
-        <v>77348485075.2475</v>
+        <v>77988820276.12372</v>
       </c>
       <c r="E220" t="n">
-        <v>0.002939343798629772</v>
+        <v>0.003084380245740233</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.8278574561005003</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>1.007806772921929</v>
+        <v>1.004765413636495</v>
       </c>
       <c r="C221" t="n">
-        <v>51748798673.78007</v>
+        <v>32259255206.0605</v>
       </c>
       <c r="D221" t="n">
-        <v>77988820276.12372</v>
+        <v>78372882681.58614</v>
       </c>
       <c r="E221" t="n">
-        <v>0.00308438024574025</v>
+        <v>0.003098446929083306</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.4924582832547264</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>1.004765413636495</v>
+        <v>1.001919088078442</v>
       </c>
       <c r="C222" t="n">
-        <v>32259255206.0605</v>
+        <v>34121646700.66709</v>
       </c>
       <c r="D222" t="n">
-        <v>78372882681.58614</v>
+        <v>79581658858.01941</v>
       </c>
       <c r="E222" t="n">
-        <v>0.003098446929083323</v>
+        <v>0.003051214944018319</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.542339818409255</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>1.001919088078442</v>
+        <v>1.007603522833342</v>
       </c>
       <c r="C223" t="n">
-        <v>34121646700.66709</v>
+        <v>24400779907.98165</v>
       </c>
       <c r="D223" t="n">
-        <v>79581658858.01941</v>
+        <v>79623139461.57642</v>
       </c>
       <c r="E223" t="n">
-        <v>0.003051214944018336</v>
+        <v>0.003174114992774996</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.05212332106698803</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>1.007603522833342</v>
+        <v>1.001102557238932</v>
       </c>
       <c r="C224" t="n">
-        <v>24400779907.98165</v>
+        <v>23064969258.59126</v>
       </c>
       <c r="D224" t="n">
-        <v>79623139461.57642</v>
+        <v>79174842323.5603</v>
       </c>
       <c r="E224" t="n">
-        <v>0.003174114992775012</v>
+        <v>0.003142705380547839</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-0.5630236901578711</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>1.001102557238932</v>
+        <v>1.002017244356897</v>
       </c>
       <c r="C225" t="n">
-        <v>23064969258.59126</v>
+        <v>29501041702.53728</v>
       </c>
       <c r="D225" t="n">
-        <v>79174842323.5603</v>
+        <v>79555652816.88434</v>
       </c>
       <c r="E225" t="n">
-        <v>0.003142705380547855</v>
+        <v>0.003109830738304339</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.480974110144472</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>1.002017244356897</v>
+        <v>1.001061361059838</v>
       </c>
       <c r="C226" t="n">
-        <v>29501041702.53728</v>
+        <v>27646476417.4987</v>
       </c>
       <c r="D226" t="n">
-        <v>79555652816.88434</v>
+        <v>79597410585.38544</v>
       </c>
       <c r="E226" t="n">
-        <v>0.003109830738304356</v>
+        <v>0.003076508940149749</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.05248875098444739</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>1.001061361059838</v>
+        <v>1.000676572783677</v>
       </c>
       <c r="C227" t="n">
-        <v>27646476417.4987</v>
+        <v>32482599442.83221</v>
       </c>
       <c r="D227" t="n">
-        <v>79597410585.38544</v>
+        <v>79636370260.18375</v>
       </c>
       <c r="E227" t="n">
-        <v>0.003076508940149766</v>
+        <v>0.003074159418347159</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.04894590729997983</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>1.000676572783677</v>
+        <v>1.000673649534731</v>
       </c>
       <c r="C228" t="n">
-        <v>32482599442.83221</v>
+        <v>34656392597.79841</v>
       </c>
       <c r="D228" t="n">
-        <v>79636370260.18375</v>
+        <v>79708195096.12521</v>
       </c>
       <c r="E228" t="n">
-        <v>0.003074159418347175</v>
+        <v>0.002995082720808739</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.09019099653437834</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>1.000673649534731</v>
+        <v>1.000889928224266</v>
       </c>
       <c r="C229" t="n">
-        <v>34656392597.79841</v>
+        <v>29874023429.95543</v>
       </c>
       <c r="D229" t="n">
-        <v>79708195096.12521</v>
+        <v>79808588133.30806</v>
       </c>
       <c r="E229" t="n">
-        <v>0.002995082720808756</v>
+        <v>0.002964691988522409</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.1259507094117263</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>1.000889928224266</v>
+        <v>1.001187338365211</v>
       </c>
       <c r="C230" t="n">
-        <v>29874023429.95543</v>
+        <v>18039579982.77989</v>
       </c>
       <c r="D230" t="n">
-        <v>79808588133.30806</v>
+        <v>79772056639.103</v>
       </c>
       <c r="E230" t="n">
-        <v>0.002964691988522426</v>
+        <v>0.002932334317829052</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.04577388857455178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>1.001187338365211</v>
+        <v>1.002021959965084</v>
       </c>
       <c r="C231" t="n">
-        <v>18039579982.77989</v>
+        <v>18937046329.7478</v>
       </c>
       <c r="D231" t="n">
-        <v>79772056639.103</v>
+        <v>79792660516.37926</v>
       </c>
       <c r="E231" t="n">
-        <v>0.00293233431782907</v>
+        <v>0.002908013328596202</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.0258284393612529</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>1.002021959965084</v>
+        <v>1.00028904781212</v>
       </c>
       <c r="C232" t="n">
-        <v>18937046329.7478</v>
+        <v>33846295418.61929</v>
       </c>
       <c r="D232" t="n">
-        <v>79792660516.37926</v>
+        <v>79874799190.06126</v>
       </c>
       <c r="E232" t="n">
-        <v>0.002908013328596221</v>
+        <v>0.002936641352046603</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.1029401365369331</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>1.00028904781212</v>
+        <v>1.001189046277968</v>
       </c>
       <c r="C233" t="n">
-        <v>33846295418.61929</v>
+        <v>27307278314.97007</v>
       </c>
       <c r="D233" t="n">
-        <v>79874799190.06126</v>
+        <v>80081067435.1964</v>
       </c>
       <c r="E233" t="n">
-        <v>0.002936641352046621</v>
+        <v>0.002909306439655597</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.2582394537785637</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>1.001189046277968</v>
+        <v>1.000264481907336</v>
       </c>
       <c r="C234" t="n">
-        <v>27307278314.97007</v>
+        <v>27633691850.59193</v>
       </c>
       <c r="D234" t="n">
-        <v>80081067435.1964</v>
+        <v>80140266879.62009</v>
       </c>
       <c r="E234" t="n">
-        <v>0.002909306439655615</v>
+        <v>0.002912408561757621</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.07392439476607837</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>1.000264481907336</v>
+        <v>1.000621433410576</v>
       </c>
       <c r="C235" t="n">
-        <v>27633691850.59193</v>
+        <v>22623151065.65078</v>
       </c>
       <c r="D235" t="n">
-        <v>80140266879.62009</v>
+        <v>80188675274.39629</v>
       </c>
       <c r="E235" t="n">
-        <v>0.002912408561757638</v>
+        <v>0.002918554200253923</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.06040458393894443</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>1.000621433410576</v>
+        <v>1.001105857057715</v>
       </c>
       <c r="C236" t="n">
-        <v>22623151065.65078</v>
+        <v>18548285385.58858</v>
       </c>
       <c r="D236" t="n">
-        <v>80188675274.39629</v>
+        <v>80268298419.65393</v>
       </c>
       <c r="E236" t="n">
-        <v>0.00291855420025394</v>
+        <v>0.002886588241470139</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.09929475076770888</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>1.001105857057715</v>
+        <v>1.001021414681967</v>
       </c>
       <c r="C237" t="n">
-        <v>18548285385.58858</v>
+        <v>17557605161.69512</v>
       </c>
       <c r="D237" t="n">
-        <v>80268298419.65393</v>
+        <v>80306857722.22342</v>
       </c>
       <c r="E237" t="n">
-        <v>0.002886588241470157</v>
+        <v>0.002900793593427167</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.04803802164572435</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>1.001021414681967</v>
+        <v>1.001358703251279</v>
       </c>
       <c r="C238" t="n">
-        <v>17557605161.69512</v>
+        <v>19218489631.17867</v>
       </c>
       <c r="D238" t="n">
-        <v>80306857722.22342</v>
+        <v>80310814337.52859</v>
       </c>
       <c r="E238" t="n">
-        <v>0.002900793593427185</v>
+        <v>0.002892167767238861</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.004926871026200708</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>1.001358703251279</v>
+        <v>1.001166512528747</v>
       </c>
       <c r="C239" t="n">
-        <v>19218489631.17867</v>
+        <v>26264825227.7899</v>
       </c>
       <c r="D239" t="n">
-        <v>80310814337.52859</v>
+        <v>80390805147.35063</v>
       </c>
       <c r="E239" t="n">
-        <v>0.002892167767238879</v>
+        <v>0.002912226154065456</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.09960154243469077</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>1.001166512528747</v>
+        <v>1.001053554616635</v>
       </c>
       <c r="C240" t="n">
-        <v>26264825227.7899</v>
+        <v>28280855887.54553</v>
       </c>
       <c r="D240" t="n">
-        <v>80390805147.35063</v>
+        <v>80526255295.43082</v>
       </c>
       <c r="E240" t="n">
-        <v>0.002912226154065474</v>
+        <v>0.002813956012723745</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.1684896025508253</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>1.001053554616635</v>
+        <v>1.00079446708217</v>
       </c>
       <c r="C241" t="n">
-        <v>28280855887.54553</v>
+        <v>30664802859.92719</v>
       </c>
       <c r="D241" t="n">
-        <v>80526255295.43082</v>
+        <v>80667591426.44553</v>
       </c>
       <c r="E241" t="n">
-        <v>0.002813956012723763</v>
+        <v>0.002831224790358952</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.1755155886687954</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>1.00079446708217</v>
+        <v>1.001765945894071</v>
       </c>
       <c r="C242" t="n">
-        <v>30664802859.92719</v>
+        <v>28798275094.47395</v>
       </c>
       <c r="D242" t="n">
-        <v>80667591426.44553</v>
+        <v>80886569881.39658</v>
       </c>
       <c r="E242" t="n">
-        <v>0.00283122479035897</v>
+        <v>0.002826415845476684</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.271457782585105</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>1.001765945894071</v>
+        <v>1.001115281273318</v>
       </c>
       <c r="C243" t="n">
-        <v>28798275094.47395</v>
+        <v>38652292144.26669</v>
       </c>
       <c r="D243" t="n">
-        <v>80886569881.39658</v>
+        <v>80869263894.07669</v>
       </c>
       <c r="E243" t="n">
-        <v>0.002826415845476702</v>
+        <v>0.00273565232146886</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-0.02139537792894552</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>1.001115281273318</v>
+        <v>1.000699671200246</v>
       </c>
       <c r="C244" t="n">
-        <v>38652292144.26669</v>
+        <v>21813314655.31208</v>
       </c>
       <c r="D244" t="n">
-        <v>80869263894.07669</v>
+        <v>80993005658.63786</v>
       </c>
       <c r="E244" t="n">
-        <v>0.002735652321468879</v>
+        <v>0.002611655180242665</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.1530145800798355</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>1.000699671200246</v>
+        <v>1.000896970664833</v>
       </c>
       <c r="C245" t="n">
-        <v>21813314655.31208</v>
+        <v>21180143607.52353</v>
       </c>
       <c r="D245" t="n">
-        <v>80993005658.63786</v>
+        <v>80983997260.14981</v>
       </c>
       <c r="E245" t="n">
-        <v>0.002611655180242685</v>
+        <v>0.002590528149560271</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-0.01112244003639296</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>1.000896970664833</v>
+        <v>1.001582625762651</v>
       </c>
       <c r="C246" t="n">
-        <v>21180143607.52353</v>
+        <v>29680367897.54067</v>
       </c>
       <c r="D246" t="n">
-        <v>80983997260.14981</v>
+        <v>81022519469.1722</v>
       </c>
       <c r="E246" t="n">
-        <v>0.002590528149560292</v>
+        <v>0.002559262242463171</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.04756768043769899</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>1.001582625762651</v>
+        <v>1.000532391170918</v>
       </c>
       <c r="C247" t="n">
-        <v>29680367897.54067</v>
+        <v>29616720696.27567</v>
       </c>
       <c r="D247" t="n">
-        <v>81022519469.1722</v>
+        <v>81124243453.9212</v>
       </c>
       <c r="E247" t="n">
-        <v>0.002559262242463192</v>
+        <v>0.002499506050162982</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1255502611069881</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>1.000532391170918</v>
+        <v>1.001356848320321</v>
       </c>
       <c r="C248" t="n">
-        <v>29616720696.27567</v>
+        <v>40775850572.6283</v>
       </c>
       <c r="D248" t="n">
-        <v>81124243453.9212</v>
+        <v>81576461707.21233</v>
       </c>
       <c r="E248" t="n">
-        <v>0.002499506050163003</v>
+        <v>0.002065289779609038</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.557439100862589</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>1.001356848320321</v>
+        <v>1.000380913764375</v>
       </c>
       <c r="C249" t="n">
-        <v>40775850572.6283</v>
+        <v>33850631738.25216</v>
       </c>
       <c r="D249" t="n">
-        <v>81576461707.21233</v>
+        <v>81432223467.57095</v>
       </c>
       <c r="E249" t="n">
-        <v>0.002065289779609064</v>
+        <v>0.001843803636434769</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-0.1768135521237224</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>1.000380913764375</v>
+        <v>1.001170706014844</v>
       </c>
       <c r="C250" t="n">
-        <v>33850631738.25216</v>
+        <v>32874452175.14617</v>
       </c>
       <c r="D250" t="n">
-        <v>81432223467.57095</v>
+        <v>81482240781.84691</v>
       </c>
       <c r="E250" t="n">
-        <v>0.001843803636434798</v>
+        <v>0.001428627999273319</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.06142201716483608</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>1.001170706014844</v>
+        <v>1.002000937853489</v>
       </c>
       <c r="C251" t="n">
-        <v>32874452175.14617</v>
+        <v>18029599677.25232</v>
       </c>
       <c r="D251" t="n">
-        <v>81482240781.84691</v>
+        <v>81601259475.56419</v>
       </c>
       <c r="E251" t="n">
-        <v>0.001428627999273356</v>
+        <v>0.001286818698251714</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1460670356819627</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>1.002000937853489</v>
+        <v>1.00116375783237</v>
       </c>
       <c r="C252" t="n">
-        <v>18029599677.25232</v>
+        <v>17557029367.04201</v>
       </c>
       <c r="D252" t="n">
-        <v>81601259475.56419</v>
+        <v>81498022564.96622</v>
       </c>
       <c r="E252" t="n">
-        <v>0.001286818698251754</v>
+        <v>0.001282019276925367</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-0.1265138691013634</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>1.00116375783237</v>
+        <v>1.000716795142705</v>
       </c>
       <c r="C253" t="n">
-        <v>17557029367.04201</v>
+        <v>23174575651.24444</v>
       </c>
       <c r="D253" t="n">
-        <v>81498022564.96622</v>
+        <v>81561952839.31276</v>
       </c>
       <c r="E253" t="n">
-        <v>0.001282019276925407</v>
+        <v>0.0004763520868114732</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.07844395769920354</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>1.000716795142705</v>
+        <v>1.001473712618784</v>
       </c>
       <c r="C254" t="n">
-        <v>23174575651.24444</v>
+        <v>23815476982.59434</v>
       </c>
       <c r="D254" t="n">
-        <v>81561952839.31276</v>
+        <v>81650664075.8101</v>
       </c>
       <c r="E254" t="n">
-        <v>0.0004763520868115831</v>
+        <v>0.0004822094891811124</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1087654640542057</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>1.001473712618784</v>
+        <v>1.000296836942415</v>
       </c>
       <c r="C255" t="n">
-        <v>23815476982.59434</v>
+        <v>42728517018.06984</v>
       </c>
       <c r="D255" t="n">
-        <v>81650664075.8101</v>
+        <v>81618274278.07602</v>
       </c>
       <c r="E255" t="n">
-        <v>0.0004822094891812209</v>
+        <v>0.0004683870812354812</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-0.03966874991244707</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>1.000296836942415</v>
+        <v>1.001350899248264</v>
       </c>
       <c r="C256" t="n">
-        <v>42728517018.06984</v>
+        <v>34953224145.46865</v>
       </c>
       <c r="D256" t="n">
-        <v>81618274278.07602</v>
+        <v>81714368057.79353</v>
       </c>
       <c r="E256" t="n">
-        <v>0.0004683870812355929</v>
+        <v>0.0004722861591862126</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.1177356181167433</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>1.001350899248264</v>
+        <v>1.000793835900093</v>
       </c>
       <c r="C257" t="n">
-        <v>34953224145.46865</v>
+        <v>25277099047.73672</v>
       </c>
       <c r="D257" t="n">
-        <v>81714368057.79353</v>
+        <v>81713940555.01346</v>
       </c>
       <c r="E257" t="n">
-        <v>0.0004722861591863234</v>
+        <v>0.0004697620672595319</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.0005231672106531526</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>1.000793835900093</v>
+        <v>1.000952488788206</v>
       </c>
       <c r="C258" t="n">
-        <v>25277099047.73672</v>
+        <v>13491816831.1699</v>
       </c>
       <c r="D258" t="n">
-        <v>81713940555.01346</v>
+        <v>81811659037.79712</v>
       </c>
       <c r="E258" t="n">
-        <v>0.0004697620672596433</v>
+        <v>0.0004651801966933472</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.1195860609829236</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>1.000952488788206</v>
+        <v>1.001362607929459</v>
       </c>
       <c r="C259" t="n">
-        <v>13491816831.1699</v>
+        <v>18862210774.18952</v>
       </c>
       <c r="D259" t="n">
-        <v>81811659037.79712</v>
+        <v>81834959453.01086</v>
       </c>
       <c r="E259" t="n">
-        <v>0.0004651801966934597</v>
+        <v>0.000467902142117001</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.02848055581292641</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>1.001362607929459</v>
+        <v>1.001332354405031</v>
       </c>
       <c r="C260" t="n">
-        <v>18862210774.18952</v>
+        <v>26517216172.21875</v>
       </c>
       <c r="D260" t="n">
-        <v>81834959453.01086</v>
+        <v>81873049553.92931</v>
       </c>
       <c r="E260" t="n">
-        <v>0.0004679021421171129</v>
+        <v>0.0004700474272985379</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.046545023267619</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>1.001332354405031</v>
+        <v>1.001340533072383</v>
       </c>
       <c r="C261" t="n">
-        <v>26517216172.21875</v>
+        <v>22845821557.87078</v>
       </c>
       <c r="D261" t="n">
-        <v>81873049553.92931</v>
+        <v>81882894005.45645</v>
       </c>
       <c r="E261" t="n">
-        <v>0.0004700474272986492</v>
+        <v>0.0004373392544929096</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.01202404403009005</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>1.001340533072383</v>
+        <v>1.000373149186599</v>
       </c>
       <c r="C262" t="n">
-        <v>22845821557.87078</v>
+        <v>27599627945.40974</v>
       </c>
       <c r="D262" t="n">
-        <v>81882894005.45645</v>
+        <v>81989333426.15041</v>
       </c>
       <c r="E262" t="n">
-        <v>0.0004373392544930293</v>
+        <v>0.0004326145423354611</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.1299898128745536</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>1.000373149186599</v>
+        <v>1.000573586856295</v>
       </c>
       <c r="C263" t="n">
-        <v>27599627945.40974</v>
+        <v>10260443407.77676</v>
       </c>
       <c r="D263" t="n">
-        <v>81989333426.15041</v>
+        <v>82166156610.54845</v>
       </c>
       <c r="E263" t="n">
-        <v>0.0004326145423355821</v>
+        <v>0.0004398914505171645</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.2156660836343027</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>1.000573586856295</v>
+        <v>1.001340878185014</v>
       </c>
       <c r="C264" t="n">
-        <v>10260443407.77676</v>
+        <v>18857165134.18643</v>
       </c>
       <c r="D264" t="n">
-        <v>82166156610.54845</v>
+        <v>82151905581.7886</v>
       </c>
       <c r="E264" t="n">
-        <v>0.0004398914505172835</v>
+        <v>0.0004195145507609355</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-0.01734415889426133</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>1.001340878185014</v>
+        <v>1.00174143768314</v>
       </c>
       <c r="C265" t="n">
-        <v>18857165134.18643</v>
+        <v>23546975147.57008</v>
       </c>
       <c r="D265" t="n">
-        <v>82151905581.7886</v>
+        <v>82239351555.02676</v>
       </c>
       <c r="E265" t="n">
-        <v>0.0004195145507610602</v>
+        <v>0.0004291842404425588</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.1064442420646072</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>1.00174143768314</v>
+        <v>1.001477873022945</v>
       </c>
       <c r="C266" t="n">
-        <v>23546975147.57008</v>
+        <v>14673735668.71931</v>
       </c>
       <c r="D266" t="n">
-        <v>82239351555.02676</v>
+        <v>81979806768.98271</v>
       </c>
       <c r="E266" t="n">
-        <v>0.0004291842404426808</v>
+        <v>0.0004348795407309711</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.3155968294209943</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>1.001477873022945</v>
+        <v>1.000893394682261</v>
       </c>
       <c r="C267" t="n">
-        <v>14673735668.71931</v>
+        <v>31517422203.53606</v>
       </c>
       <c r="D267" t="n">
-        <v>81979806768.98271</v>
+        <v>82444600542.1588</v>
       </c>
       <c r="E267" t="n">
-        <v>0.0004348795407310915</v>
+        <v>0.0004363663406276869</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.5669612938779656</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>1.000893394682261</v>
+        <v>0.998773584418374</v>
       </c>
       <c r="C268" t="n">
-        <v>31517422203.53606</v>
+        <v>16814773339.9493</v>
       </c>
       <c r="D268" t="n">
-        <v>82444600542.1588</v>
+        <v>82501557251.18872</v>
       </c>
       <c r="E268" t="n">
-        <v>0.0004363663406278068</v>
+        <v>0.0006061425928758934</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.06908482624135015</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>0.998773584418374</v>
+        <v>0.9997730914912693</v>
       </c>
       <c r="C269" t="n">
-        <v>16814773339.9493</v>
+        <v>13254326645.6784</v>
       </c>
       <c r="D269" t="n">
-        <v>82501557251.18872</v>
+        <v>82565452645.59608</v>
       </c>
       <c r="E269" t="n">
-        <v>0.0006061425928759797</v>
+        <v>0.000646257052502497</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.07744750103664266</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>0.9997730914912693</v>
+        <v>0.9999926442450879</v>
       </c>
       <c r="C270" t="n">
-        <v>13254326645.6784</v>
+        <v>24966468466.75595</v>
       </c>
       <c r="D270" t="n">
-        <v>82565452645.59608</v>
+        <v>82667039654.89803</v>
       </c>
       <c r="E270" t="n">
-        <v>0.0006462570525025781</v>
+        <v>0.0006700794551529338</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.1230381546359238</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9999926442450879</v>
+        <v>1.001059730714301</v>
       </c>
       <c r="C271" t="n">
-        <v>24966468466.75595</v>
+        <v>22948485384.83773</v>
       </c>
       <c r="D271" t="n">
-        <v>82667039654.89803</v>
+        <v>82799743141.6915</v>
       </c>
       <c r="E271" t="n">
-        <v>0.0006700794551530118</v>
+        <v>0.000669924781996821</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1605276871501138</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>1.001059730714301</v>
+        <v>1.000701582351498</v>
       </c>
       <c r="C272" t="n">
-        <v>22948485384.83773</v>
+        <v>13610775328.44514</v>
       </c>
       <c r="D272" t="n">
-        <v>82799743141.6915</v>
+        <v>83088864855.27592</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0006699247819968992</v>
+        <v>0.0006527960282285272</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.3491818967235938</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>1.000701582351498</v>
+        <v>1.000041222636967</v>
       </c>
       <c r="C273" t="n">
-        <v>13610775328.44514</v>
+        <v>12887195724.10691</v>
       </c>
       <c r="D273" t="n">
-        <v>83088864855.27592</v>
+        <v>82795486682.09766</v>
       </c>
       <c r="E273" t="n">
-        <v>0.0006527960282286074</v>
+        <v>0.0006702204789899005</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-0.3530896392546445</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>1.000041222636967</v>
+        <v>1.001635020497013</v>
       </c>
       <c r="C274" t="n">
-        <v>12887195724.10691</v>
+        <v>20209244399.28626</v>
       </c>
       <c r="D274" t="n">
-        <v>82795486682.09766</v>
+        <v>82803772135.3671</v>
       </c>
       <c r="E274" t="n">
-        <v>0.0006702204789899786</v>
+        <v>0.0006835711611938783</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.01000713154963861</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>1.001635020497013</v>
+        <v>1.000153869534579</v>
       </c>
       <c r="C275" t="n">
-        <v>20209244399.28626</v>
+        <v>18183872793.42892</v>
       </c>
       <c r="D275" t="n">
-        <v>82803772135.3671</v>
+        <v>82847420820.40103</v>
       </c>
       <c r="E275" t="n">
-        <v>0.0006835711611939549</v>
+        <v>0.0006971170672648642</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.05271340170660554</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>1.000153869534579</v>
+        <v>0.9993023345283431</v>
       </c>
       <c r="C276" t="n">
-        <v>18183872793.42892</v>
+        <v>15053422109.67533</v>
       </c>
       <c r="D276" t="n">
-        <v>82847420820.40103</v>
+        <v>82854296237.72488</v>
       </c>
       <c r="E276" t="n">
-        <v>0.0006971170672649392</v>
+        <v>0.0007405959634045656</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.008298891209612691</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>0.9993023345283431</v>
+        <v>0.999370508017546</v>
       </c>
       <c r="C277" t="n">
-        <v>15053422109.67533</v>
+        <v>13318816749.05286</v>
       </c>
       <c r="D277" t="n">
-        <v>82854296237.72488</v>
+        <v>82877902315.1606</v>
       </c>
       <c r="E277" t="n">
-        <v>0.0007405959634046363</v>
+        <v>0.0007842719962311251</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.02849107228910519</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>0.999370508017546</v>
+        <v>1.000565722157502</v>
       </c>
       <c r="C278" t="n">
-        <v>13318816749.05286</v>
+        <v>8386664936.126447</v>
       </c>
       <c r="D278" t="n">
-        <v>82877902315.1606</v>
+        <v>82912724184.79961</v>
       </c>
       <c r="E278" t="n">
-        <v>0.0007842719962311918</v>
+        <v>0.0007768897039234814</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.04201586751868547</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>1.000565722157502</v>
+        <v>1.000117788175842</v>
       </c>
       <c r="C279" t="n">
-        <v>8386664936.126447</v>
+        <v>6894277527.257222</v>
       </c>
       <c r="D279" t="n">
-        <v>82912724184.79961</v>
+        <v>82935921774.5457</v>
       </c>
       <c r="E279" t="n">
-        <v>0.0007768897039235488</v>
+        <v>0.0007825118439918787</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.02797832295846625</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>1.000117788175842</v>
+        <v>1.000397879345297</v>
       </c>
       <c r="C280" t="n">
-        <v>6894277527.257222</v>
+        <v>11892096121.55383</v>
       </c>
       <c r="D280" t="n">
-        <v>82935921774.5457</v>
+        <v>82951150480.0993</v>
       </c>
       <c r="E280" t="n">
-        <v>0.0007825118439919456</v>
+        <v>0.0007801558137547191</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.01836201398353055</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>1.000397879345297</v>
+        <v>1.000190185387381</v>
       </c>
       <c r="C281" t="n">
-        <v>11892096121.55383</v>
+        <v>11515676906.84218</v>
       </c>
       <c r="D281" t="n">
-        <v>82951150480.0993</v>
+        <v>82986871465.61473</v>
       </c>
       <c r="E281" t="n">
-        <v>0.0007801558137547863</v>
+        <v>0.0007454987759668035</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.04306267641700501</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>1.000190185387381</v>
+        <v>1.000075993301486</v>
       </c>
       <c r="C282" t="n">
-        <v>11515676906.84218</v>
+        <v>16157719373.31572</v>
       </c>
       <c r="D282" t="n">
-        <v>82986871465.61473</v>
+        <v>83010344061.69141</v>
       </c>
       <c r="E282" t="n">
-        <v>0.0007454987759668737</v>
+        <v>0.0007456985897383607</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.02828471017419787</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>1.000075993301486</v>
+        <v>0.9996633161334962</v>
       </c>
       <c r="C283" t="n">
-        <v>16157719373.31572</v>
+        <v>21879143806.39798</v>
       </c>
       <c r="D283" t="n">
-        <v>83010344061.69141</v>
+        <v>83087445100.97391</v>
       </c>
       <c r="E283" t="n">
-        <v>0.0007456985897384309</v>
+        <v>0.0007648464903538573</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.09288124287885058</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>0.9996633161334962</v>
+        <v>0.9998546264977252</v>
       </c>
       <c r="C284" t="n">
-        <v>21879143806.39798</v>
+        <v>20626803742.31419</v>
       </c>
       <c r="D284" t="n">
-        <v>83087445100.97391</v>
+        <v>83050428815.98918</v>
       </c>
       <c r="E284" t="n">
-        <v>0.0007648464903539257</v>
+        <v>0.0007559954711328456</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-0.0445509967718194</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>0.9998546264977252</v>
+        <v>1.000669484491657</v>
       </c>
       <c r="C285" t="n">
-        <v>20626803742.31419</v>
+        <v>10843817553.493</v>
       </c>
       <c r="D285" t="n">
-        <v>83050428815.98918</v>
+        <v>83125090385.81488</v>
       </c>
       <c r="E285" t="n">
-        <v>0.0007559954711329148</v>
+        <v>0.000755320671373211</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.08989907805427855</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>1.000669484491657</v>
+        <v>1.000147459196768</v>
       </c>
       <c r="C286" t="n">
-        <v>10843817553.493</v>
+        <v>12993634045.74157</v>
       </c>
       <c r="D286" t="n">
-        <v>83125090385.81488</v>
+        <v>83115259981.77856</v>
       </c>
       <c r="E286" t="n">
-        <v>0.0007553206713732803</v>
+        <v>0.0007420075238057367</v>
+      </c>
+      <c r="F286" t="n">
+        <v>-0.01182603710948582</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>1.000147459196768</v>
+        <v>1.000215575716944</v>
       </c>
       <c r="C287" t="n">
-        <v>12993634045.74157</v>
+        <v>16818048302.6191</v>
       </c>
       <c r="D287" t="n">
-        <v>83115259981.77856</v>
+        <v>83238961008.24347</v>
       </c>
       <c r="E287" t="n">
-        <v>0.0007420075238058073</v>
+        <v>0.0007413245251112187</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1488307038828074</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>1.000215575716944</v>
+        <v>1.000453843765071</v>
       </c>
       <c r="C288" t="n">
-        <v>16818048302.6191</v>
+        <v>20805714567.75866</v>
       </c>
       <c r="D288" t="n">
-        <v>83238961008.24347</v>
+        <v>83179557093.94339</v>
       </c>
       <c r="E288" t="n">
-        <v>0.0007413245251112892</v>
+        <v>0.0007356944141095308</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-0.07136551631656829</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>1.000453843765071</v>
+        <v>1.000276882234333</v>
       </c>
       <c r="C289" t="n">
-        <v>20805714567.75866</v>
+        <v>18100413202.7099</v>
       </c>
       <c r="D289" t="n">
-        <v>83179557093.94339</v>
+        <v>83178632658.51576</v>
       </c>
       <c r="E289" t="n">
-        <v>0.000735694414109602</v>
+        <v>0.0007158446150423803</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-0.001111373346918132</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>1.000276882234333</v>
+        <v>1.000403806707414</v>
       </c>
       <c r="C290" t="n">
-        <v>18100413202.7099</v>
+        <v>20382863080.55851</v>
       </c>
       <c r="D290" t="n">
-        <v>83178632658.51576</v>
+        <v>83259425002.24538</v>
       </c>
       <c r="E290" t="n">
-        <v>0.0007158446150424535</v>
+        <v>0.0006946558779098273</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.09713112748714892</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>1.000403806707414</v>
+        <v>1.000282410346998</v>
       </c>
       <c r="C291" t="n">
-        <v>20382863080.55851</v>
+        <v>11938083548.87616</v>
       </c>
       <c r="D291" t="n">
-        <v>83259425002.24538</v>
+        <v>83245325860.45761</v>
       </c>
       <c r="E291" t="n">
-        <v>0.0006946558779099026</v>
+        <v>0.0006709725876192766</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-0.0169339888996145</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>1.000282410346998</v>
+        <v>1.000376571450541</v>
       </c>
       <c r="C292" t="n">
-        <v>11938083548.87616</v>
+        <v>14132729009.72437</v>
       </c>
       <c r="D292" t="n">
-        <v>83245325860.45761</v>
+        <v>83185392884.92227</v>
       </c>
       <c r="E292" t="n">
-        <v>0.0006709725876193547</v>
+        <v>0.0006709768392547398</v>
+      </c>
+      <c r="F292" t="n">
+        <v>-0.07199560445688702</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>1.000376571450541</v>
+        <v>1.000373318873124</v>
       </c>
       <c r="C293" t="n">
-        <v>14132729009.72437</v>
+        <v>12505685639.73277</v>
       </c>
       <c r="D293" t="n">
-        <v>83185392884.92227</v>
+        <v>83181185644.95522</v>
       </c>
       <c r="E293" t="n">
-        <v>0.0006709768392548178</v>
+        <v>0.0006696782862838412</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.005057666762331436</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>1.000373318873124</v>
+        <v>1.002460490265685</v>
       </c>
       <c r="C294" t="n">
-        <v>12505685639.73277</v>
+        <v>12091623951.9069</v>
       </c>
       <c r="D294" t="n">
-        <v>83181185644.95522</v>
+        <v>83202873665.42276</v>
       </c>
       <c r="E294" t="n">
-        <v>0.0006696782862839194</v>
+        <v>0.0007531412334638578</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.02607322833809711</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>1.002460490265685</v>
+        <v>1.001459910816581</v>
       </c>
       <c r="C295" t="n">
-        <v>12091623951.9069</v>
+        <v>20606961636.88029</v>
       </c>
       <c r="D295" t="n">
-        <v>83202873665.42276</v>
+        <v>83214677269.12456</v>
       </c>
       <c r="E295" t="n">
-        <v>0.0007531412334639273</v>
+        <v>0.0007371956267107298</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.01418653368783218</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>1.001459910816581</v>
+        <v>1.00045456408254</v>
       </c>
       <c r="C296" t="n">
-        <v>20606961636.88029</v>
+        <v>28583258275.35572</v>
       </c>
       <c r="D296" t="n">
-        <v>83214677269.12456</v>
+        <v>83215224249.20848</v>
       </c>
       <c r="E296" t="n">
-        <v>0.0007371956267108008</v>
+        <v>0.000707331774470661</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.0006573120294062207</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>1.00045456408254</v>
+        <v>0.9998485018624065</v>
       </c>
       <c r="C297" t="n">
-        <v>28583258275.35572</v>
+        <v>26966533466.84843</v>
       </c>
       <c r="D297" t="n">
-        <v>83215224249.20848</v>
+        <v>83294694375.89931</v>
       </c>
       <c r="E297" t="n">
-        <v>0.0007073317744707349</v>
+        <v>0.0007047562227775337</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.09549950433689336</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>0.9998485018624065</v>
+        <v>0.9998031712508338</v>
       </c>
       <c r="C298" t="n">
-        <v>26966533466.84843</v>
+        <v>16157443170.73929</v>
       </c>
       <c r="D298" t="n">
-        <v>83294694375.89931</v>
+        <v>83314341457.23004</v>
       </c>
       <c r="E298" t="n">
-        <v>0.0007047562227776078</v>
+        <v>0.0006507027693339519</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.02358743432333554</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>0.9998031712508338</v>
+        <v>0.9999353667268374</v>
       </c>
       <c r="C299" t="n">
-        <v>16157443170.73929</v>
+        <v>10133131764.69144</v>
       </c>
       <c r="D299" t="n">
-        <v>83314341457.23004</v>
+        <v>83340103621.55147</v>
       </c>
       <c r="E299" t="n">
-        <v>0.0006507027693340323</v>
+        <v>0.0006465111395851257</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.03092164430615885</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>0.9999353667268374</v>
+        <v>1.000542567088653</v>
       </c>
       <c r="C300" t="n">
-        <v>10133131764.69144</v>
+        <v>30912006845.12693</v>
       </c>
       <c r="D300" t="n">
-        <v>83340103621.55147</v>
+        <v>83392178490.08475</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0006465111395852066</v>
+        <v>0.0006440322412312213</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.06248476576145023</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>1.000542567088653</v>
+        <v>1.00054883816815</v>
       </c>
       <c r="C301" t="n">
-        <v>30912006845.12693</v>
+        <v>15722496984.66571</v>
       </c>
       <c r="D301" t="n">
-        <v>83392178490.08475</v>
+        <v>83421999682.59865</v>
       </c>
       <c r="E301" t="n">
-        <v>0.0006440322412313026</v>
+        <v>0.0006315561694376044</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.03576017925643882</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>1.00054883816815</v>
+        <v>1.000361851894639</v>
       </c>
       <c r="C302" t="n">
-        <v>15722496984.66571</v>
+        <v>19555473232.61651</v>
       </c>
       <c r="D302" t="n">
-        <v>83421999682.59865</v>
+        <v>83412876219.14725</v>
       </c>
       <c r="E302" t="n">
-        <v>0.0006315561694376872</v>
+        <v>0.000627960647369586</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-0.01093651972634557</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>1.000361851894639</v>
+        <v>0.9989999030777137</v>
       </c>
       <c r="C303" t="n">
-        <v>19555473232.61651</v>
+        <v>17999665062.59847</v>
       </c>
       <c r="D303" t="n">
-        <v>83412876219.14725</v>
+        <v>83477452867.17456</v>
       </c>
       <c r="E303" t="n">
-        <v>0.0006279606473696694</v>
+        <v>0.0006718756772079938</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.0774180809419045</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>0.9989999030777137</v>
+        <v>0.9990575435310662</v>
       </c>
       <c r="C304" t="n">
-        <v>17999665062.59847</v>
+        <v>14333003063.97966</v>
       </c>
       <c r="D304" t="n">
-        <v>83477452867.17456</v>
+        <v>83520295613.2809</v>
       </c>
       <c r="E304" t="n">
-        <v>0.0006718756772080718</v>
+        <v>0.0006597035837076707</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.05132253636741524</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>0.9990575435310662</v>
+        <v>0.999088388977999</v>
       </c>
       <c r="C305" t="n">
-        <v>14333003063.97966</v>
+        <v>19100399151.19726</v>
       </c>
       <c r="D305" t="n">
-        <v>83520295613.2809</v>
+        <v>83531769676.53441</v>
       </c>
       <c r="E305" t="n">
-        <v>0.0006597035837077501</v>
+        <v>0.0006908925019600829</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.0137380539295906</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>0.999088388977999</v>
+        <v>0.9993655187980076</v>
       </c>
       <c r="C306" t="n">
-        <v>19100399151.19726</v>
+        <v>20825513615.74261</v>
       </c>
       <c r="D306" t="n">
-        <v>83531769676.53441</v>
+        <v>83512114862.29964</v>
       </c>
       <c r="E306" t="n">
-        <v>0.0006908925019601586</v>
+        <v>0.0006882265356780479</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.02352974719783685</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>0.9993655187980076</v>
+        <v>0.9989070475232625</v>
       </c>
       <c r="C307" t="n">
-        <v>20825513615.74261</v>
+        <v>12921626224.31606</v>
       </c>
       <c r="D307" t="n">
-        <v>83512114862.29964</v>
+        <v>83510630760.90634</v>
       </c>
       <c r="E307" t="n">
-        <v>0.0006882265356781239</v>
+        <v>0.0007117926274870959</v>
+      </c>
+      <c r="F307" t="n">
+        <v>-0.001777109100564722</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>0.9989070475232625</v>
+        <v>0.9996073859739449</v>
       </c>
       <c r="C308" t="n">
-        <v>12921626224.31606</v>
+        <v>12287433243.24348</v>
       </c>
       <c r="D308" t="n">
-        <v>83510630760.90634</v>
+        <v>83130615716.81691</v>
       </c>
       <c r="E308" t="n">
-        <v>0.0007117926274871694</v>
+        <v>0.00071460784108846</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-0.4550499027811572</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>0.9996073859739449</v>
+        <v>1.000118766234425</v>
       </c>
       <c r="C309" t="n">
-        <v>12287433243.24348</v>
+        <v>12696832719.27964</v>
       </c>
       <c r="D309" t="n">
-        <v>83130615716.81691</v>
+        <v>83176269486.24306</v>
       </c>
       <c r="E309" t="n">
-        <v>0.0007146078410885333</v>
+        <v>0.0007146072238289717</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.05491811775057975</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>1.000118766234425</v>
+        <v>0.999060525973033</v>
       </c>
       <c r="C310" t="n">
-        <v>12696832719.27964</v>
+        <v>20880943880.76952</v>
       </c>
       <c r="D310" t="n">
-        <v>83176269486.24306</v>
+        <v>83135121982.19963</v>
       </c>
       <c r="E310" t="n">
-        <v>0.0007146072238290449</v>
+        <v>0.0007387153300442319</v>
+      </c>
+      <c r="F310" t="n">
+        <v>-0.0494702446954931</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>0.999060525973033</v>
+        <v>1.00084148079896</v>
       </c>
       <c r="C311" t="n">
-        <v>20880943880.76952</v>
+        <v>37604348904.13151</v>
       </c>
       <c r="D311" t="n">
-        <v>83135121982.19963</v>
+        <v>83170086674.34586</v>
       </c>
       <c r="E311" t="n">
-        <v>0.0007387153300443027</v>
+        <v>0.000751321430059563</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.04205766625773322</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>1.00084148079896</v>
+        <v>1.000855969646936</v>
       </c>
       <c r="C312" t="n">
-        <v>37604348904.13151</v>
+        <v>13604556265.4663</v>
       </c>
       <c r="D312" t="n">
-        <v>83170086674.34586</v>
+        <v>83172721039.26547</v>
       </c>
       <c r="E312" t="n">
-        <v>0.0007513214300596327</v>
+        <v>0.0007635534543769621</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.003167442796980779</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>1.000855969646936</v>
+        <v>1.000698926146333</v>
       </c>
       <c r="C313" t="n">
-        <v>13604556265.4663</v>
+        <v>27490690982.21527</v>
       </c>
       <c r="D313" t="n">
-        <v>83172721039.26547</v>
+        <v>83349230026.90846</v>
       </c>
       <c r="E313" t="n">
-        <v>0.0007635534543770306</v>
+        <v>0.0007649252703072279</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.2122198064911984</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>1.000698926146333</v>
+        <v>1.000872673027361</v>
       </c>
       <c r="C314" t="n">
-        <v>27490690982.21527</v>
+        <v>13928337335.10721</v>
       </c>
       <c r="D314" t="n">
-        <v>83349230026.90846</v>
+        <v>83310443944.22711</v>
       </c>
       <c r="E314" t="n">
-        <v>0.0007649252703072965</v>
+        <v>0.0007730356588024588</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-0.04653442229619609</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>1.000872673027361</v>
+        <v>0.9996999119797204</v>
       </c>
       <c r="C315" t="n">
-        <v>13928337335.10721</v>
+        <v>14651066137.01663</v>
       </c>
       <c r="D315" t="n">
-        <v>83310443944.22711</v>
+        <v>83241756372.50633</v>
       </c>
       <c r="E315" t="n">
-        <v>0.0007730356588025265</v>
+        <v>0.0007731264940883407</v>
+      </c>
+      <c r="F315" t="n">
+        <v>-0.08244773220361656</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>0.9996999119797204</v>
+        <v>1.000250091993888</v>
       </c>
       <c r="C316" t="n">
-        <v>14651066137.01663</v>
+        <v>22557703195.95586</v>
       </c>
       <c r="D316" t="n">
-        <v>83241756372.50633</v>
+        <v>83129801763.55685</v>
       </c>
       <c r="E316" t="n">
-        <v>0.0007731264940884085</v>
+        <v>0.000773247452116916</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-0.13449332862282</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>1.000250091993888</v>
+        <v>0.9998202078282138</v>
       </c>
       <c r="C317" t="n">
-        <v>22557703195.95586</v>
+        <v>20500258844.81821</v>
       </c>
       <c r="D317" t="n">
-        <v>83129801763.55685</v>
+        <v>83283881739.39743</v>
       </c>
       <c r="E317" t="n">
-        <v>0.0007732474521169836</v>
+        <v>0.0007758802443394254</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.1853486626598899</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>0.9998202078282138</v>
+        <v>0.9994506236050122</v>
       </c>
       <c r="C318" t="n">
-        <v>20500258844.81821</v>
+        <v>17418987220.98297</v>
       </c>
       <c r="D318" t="n">
-        <v>83283881739.39743</v>
+        <v>83317728409.27911</v>
       </c>
       <c r="E318" t="n">
-        <v>0.0007758802443394929</v>
+        <v>0.0007843909333512033</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.04064012048283772</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>0.9994506236050122</v>
+        <v>1.000383321626578</v>
       </c>
       <c r="C319" t="n">
-        <v>17418987220.98297</v>
+        <v>16112541256.83735</v>
       </c>
       <c r="D319" t="n">
-        <v>83317728409.27911</v>
+        <v>83395956301.867</v>
       </c>
       <c r="E319" t="n">
-        <v>0.00078439093335127</v>
+        <v>0.0007853303634772925</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.09389105305850354</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>1.000383321626578</v>
+        <v>0.9995964530617081</v>
       </c>
       <c r="C320" t="n">
-        <v>16112541256.83735</v>
+        <v>40611671688.7483</v>
       </c>
       <c r="D320" t="n">
-        <v>83395956301.867</v>
+        <v>83284621552.31244</v>
       </c>
       <c r="E320" t="n">
-        <v>0.0007853303634773592</v>
+        <v>0.0007894812944234414</v>
+      </c>
+      <c r="F320" t="n">
+        <v>-0.1335013764355297</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>0.9995964530617081</v>
+        <v>1.000183450612382</v>
       </c>
       <c r="C321" t="n">
-        <v>40611671688.7483</v>
+        <v>9513166274.446636</v>
       </c>
       <c r="D321" t="n">
-        <v>83284621552.31244</v>
+        <v>83335613301.6225</v>
       </c>
       <c r="E321" t="n">
-        <v>0.0007894812944235078</v>
+        <v>0.0007889170145132131</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.06122588823680442</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>1.000183450612382</v>
+        <v>0.9990191267051235</v>
       </c>
       <c r="C322" t="n">
-        <v>9513166274.446636</v>
+        <v>9641964189.840517</v>
       </c>
       <c r="D322" t="n">
-        <v>83335613301.6225</v>
+        <v>83275413162.65305</v>
       </c>
       <c r="E322" t="n">
-        <v>0.0007889170145132794</v>
+        <v>0.0008111676875360122</v>
+      </c>
+      <c r="F322" t="n">
+        <v>-0.07223819035394596</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>0.9990191267051235</v>
+        <v>0.999795592054086</v>
       </c>
       <c r="C323" t="n">
-        <v>9641964189.840517</v>
+        <v>23818500312.61681</v>
       </c>
       <c r="D323" t="n">
-        <v>83275413162.65305</v>
+        <v>83340559709.13902</v>
       </c>
       <c r="E323" t="n">
-        <v>0.0008111676875360767</v>
+        <v>0.0008102202720750371</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.07823022908182153</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>0.999795592054086</v>
+        <v>0.9999385227397539</v>
       </c>
       <c r="C324" t="n">
-        <v>23818500312.61681</v>
+        <v>16421946137.03425</v>
       </c>
       <c r="D324" t="n">
-        <v>83340559709.13902</v>
+        <v>83379982352.33514</v>
       </c>
       <c r="E324" t="n">
-        <v>0.0008102202720751018</v>
+        <v>0.0006684506465477859</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.04730306987823507</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>0.9999385227397539</v>
+        <v>0.9992324189691514</v>
       </c>
       <c r="C325" t="n">
-        <v>16421946137.03425</v>
+        <v>15763916837.27057</v>
       </c>
       <c r="D325" t="n">
-        <v>83379982352.33514</v>
+        <v>83318318450.32018</v>
       </c>
       <c r="E325" t="n">
-        <v>0.0006684506465478642</v>
+        <v>0.0006169305042715357</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-0.07395528312107436</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9992324189691514</v>
+        <v>0.9999991428847104</v>
       </c>
       <c r="C326" t="n">
-        <v>15763916837.27057</v>
+        <v>29431199350.18021</v>
       </c>
       <c r="D326" t="n">
-        <v>83318318450.32018</v>
+        <v>83485321161.53781</v>
       </c>
       <c r="E326" t="n">
-        <v>0.0006169305042716205</v>
+        <v>0.0006077882713471091</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.2004393683451733</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>0.9999991428847104</v>
+        <v>1.000122256739168</v>
       </c>
       <c r="C327" t="n">
-        <v>29431199350.18021</v>
+        <v>11580264459.26216</v>
       </c>
       <c r="D327" t="n">
-        <v>83485321161.53781</v>
+        <v>83361580540.12299</v>
       </c>
       <c r="E327" t="n">
-        <v>0.0006077882713471953</v>
+        <v>0.0006096188506701712</v>
+      </c>
+      <c r="F327" t="n">
+        <v>-0.1482184169542822</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>1.000122256739168</v>
+        <v>1.000242286353816</v>
       </c>
       <c r="C328" t="n">
-        <v>11580264459.26216</v>
+        <v>12430990317.22207</v>
       </c>
       <c r="D328" t="n">
-        <v>83361580540.12299</v>
+        <v>83400094970.38133</v>
       </c>
       <c r="E328" t="n">
-        <v>0.000609618850670257</v>
+        <v>0.0006131730031324784</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.04620165549742428</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>1.000242286353816</v>
+        <v>0.9998358275612065</v>
       </c>
       <c r="C329" t="n">
-        <v>12430990317.22207</v>
+        <v>9027084566.994236</v>
       </c>
       <c r="D329" t="n">
-        <v>83400094970.38133</v>
+        <v>83401941911.69394</v>
       </c>
       <c r="E329" t="n">
-        <v>0.0006131730031325637</v>
+        <v>0.0006131689870813597</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.002214555406987451</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>0.9998358275612065</v>
+        <v>1.000096080842663</v>
       </c>
       <c r="C330" t="n">
-        <v>9027084566.994236</v>
+        <v>18933578946.95063</v>
       </c>
       <c r="D330" t="n">
-        <v>83401941911.69394</v>
+        <v>83357075149.29001</v>
       </c>
       <c r="E330" t="n">
-        <v>0.000613168987081445</v>
+        <v>0.0006019289909181406</v>
+      </c>
+      <c r="F330" t="n">
+        <v>-0.05379582462412547</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>1.000096080842663</v>
+        <v>1.000126277483578</v>
       </c>
       <c r="C331" t="n">
-        <v>18933578946.95063</v>
+        <v>16799272349.37158</v>
       </c>
       <c r="D331" t="n">
-        <v>83357075149.29001</v>
+        <v>83401280506.39957</v>
       </c>
       <c r="E331" t="n">
-        <v>0.0006019289909182275</v>
+        <v>0.0005902873947066207</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.05303131981344578</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>1.000126277483578</v>
+        <v>1.000507451575145</v>
       </c>
       <c r="C332" t="n">
-        <v>16799272349.37158</v>
+        <v>17906318480.99359</v>
       </c>
       <c r="D332" t="n">
-        <v>83401280506.39957</v>
+        <v>83403277912.52115</v>
       </c>
       <c r="E332" t="n">
-        <v>0.0005902873947067094</v>
+        <v>0.0005951830286352921</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.002394934597460541</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>1.000507451575145</v>
+        <v>1.000391602164165</v>
       </c>
       <c r="C333" t="n">
-        <v>17906318480.99359</v>
+        <v>41189381561.33435</v>
       </c>
       <c r="D333" t="n">
-        <v>83403277912.52115</v>
+        <v>83325381227.48358</v>
       </c>
       <c r="E333" t="n">
-        <v>0.00059518302863538</v>
+        <v>0.0005799466218352745</v>
+      </c>
+      <c r="F333" t="n">
+        <v>-0.09339763014982738</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>1.000391602164165</v>
+        <v>1.000706639287792</v>
       </c>
       <c r="C334" t="n">
-        <v>41189381561.33435</v>
+        <v>38115912805.16676</v>
       </c>
       <c r="D334" t="n">
-        <v>83325381227.48358</v>
+        <v>83642019367.73041</v>
       </c>
       <c r="E334" t="n">
-        <v>0.0005799466218353648</v>
+        <v>0.0005749351322638114</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.3800020300925855</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>1.000706639287792</v>
+        <v>1.000653088447547</v>
       </c>
       <c r="C335" t="n">
-        <v>38115912805.16676</v>
+        <v>14687396233.68424</v>
       </c>
       <c r="D335" t="n">
-        <v>83642019367.73041</v>
+        <v>83663934660.37202</v>
       </c>
       <c r="E335" t="n">
-        <v>0.0005749351322639025</v>
+        <v>0.0005639626104774236</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.02620129548196459</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>1.000653088447547</v>
+        <v>1.000548286873264</v>
       </c>
       <c r="C336" t="n">
-        <v>14687396233.68424</v>
+        <v>10365851133.89705</v>
       </c>
       <c r="D336" t="n">
-        <v>83663934660.37202</v>
+        <v>83509799726.48723</v>
       </c>
       <c r="E336" t="n">
-        <v>0.0005639626104775164</v>
+        <v>0.0005584807974291279</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-0.1842310363605271</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>1.000548286873264</v>
+        <v>0.9998071871420023</v>
       </c>
       <c r="C337" t="n">
-        <v>10365851133.89705</v>
+        <v>9569142031.318148</v>
       </c>
       <c r="D337" t="n">
-        <v>83509799726.48723</v>
+        <v>83743480630.29497</v>
       </c>
       <c r="E337" t="n">
-        <v>0.0005584807974292216</v>
+        <v>0.0005175221401010199</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.2798245290649648</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>0.9998071871420023</v>
+        <v>1.000480951983645</v>
       </c>
       <c r="C338" t="n">
-        <v>9569142031.318148</v>
+        <v>20811143044.81142</v>
       </c>
       <c r="D338" t="n">
-        <v>83743480630.29497</v>
+        <v>83790732854.88849</v>
       </c>
       <c r="E338" t="n">
-        <v>0.0005175221401011211</v>
+        <v>0.0005144605797856151</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.05642495897935085</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>1.000480951983645</v>
+        <v>1.000292876245645</v>
       </c>
       <c r="C339" t="n">
-        <v>20811143044.81142</v>
+        <v>18728809603.79993</v>
       </c>
       <c r="D339" t="n">
-        <v>83790732854.88849</v>
+        <v>83734085145.09355</v>
       </c>
       <c r="E339" t="n">
-        <v>0.0005144605797857169</v>
+        <v>0.0005155301738843782</v>
+      </c>
+      <c r="F339" t="n">
+        <v>-0.06760617536671898</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>1.000292876245645</v>
+        <v>1.000199265328102</v>
       </c>
       <c r="C340" t="n">
-        <v>18728809603.79993</v>
+        <v>22829568120.20611</v>
       </c>
       <c r="D340" t="n">
-        <v>83734085145.09355</v>
+        <v>83839342615.98102</v>
       </c>
       <c r="E340" t="n">
-        <v>0.0005155301738844797</v>
+        <v>0.0004754247528965342</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.1257044496337123</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>1.000199265328102</v>
+        <v>1.000050382290215</v>
       </c>
       <c r="C341" t="n">
-        <v>22829568120.20611</v>
+        <v>19003075543.91919</v>
       </c>
       <c r="D341" t="n">
-        <v>83839342615.98102</v>
+        <v>83784332315.95091</v>
       </c>
       <c r="E341" t="n">
-        <v>0.0004754247528966443</v>
+        <v>0.0004576383908534267</v>
+      </c>
+      <c r="F341" t="n">
+        <v>-0.06561394485411487</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>1.000050382290215</v>
+        <v>0.9997490526422014</v>
       </c>
       <c r="C342" t="n">
-        <v>19003075543.91919</v>
+        <v>9669080041.186516</v>
       </c>
       <c r="D342" t="n">
-        <v>83784332315.95091</v>
+        <v>83804674505.69337</v>
       </c>
       <c r="E342" t="n">
-        <v>0.0004576383908535411</v>
+        <v>0.000441299794465181</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.02427922880110511</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>0.9997490526422014</v>
+        <v>0.999898413750001</v>
       </c>
       <c r="C343" t="n">
-        <v>9669080041.186516</v>
+        <v>13086306837.39745</v>
       </c>
       <c r="D343" t="n">
-        <v>83804674505.69337</v>
+        <v>83755687819.48451</v>
       </c>
       <c r="E343" t="n">
-        <v>0.0004412997944652995</v>
+        <v>0.00042729463399807</v>
+      </c>
+      <c r="F343" t="n">
+        <v>-0.0584534054905661</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>0.999898413750001</v>
+        <v>1.000097329583321</v>
       </c>
       <c r="C344" t="n">
-        <v>13086306837.39745</v>
+        <v>23022131554.69191</v>
       </c>
       <c r="D344" t="n">
-        <v>83755687819.48451</v>
+        <v>83792795551.98889</v>
       </c>
       <c r="E344" t="n">
-        <v>0.0004272946339981925</v>
+        <v>0.0003992874518941872</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.04430473138057334</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>1.000097329583321</v>
+        <v>0.9996062705921892</v>
       </c>
       <c r="C345" t="n">
-        <v>23022131554.69191</v>
+        <v>12105247897.25322</v>
       </c>
       <c r="D345" t="n">
-        <v>83792795551.98889</v>
+        <v>83790318776.21411</v>
       </c>
       <c r="E345" t="n">
-        <v>0.0003992874518943183</v>
+        <v>0.0004023847487560513</v>
+      </c>
+      <c r="F345" t="n">
+        <v>-0.002955833802253949</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>0.9996062705921892</v>
+        <v>1.000832604408993</v>
       </c>
       <c r="C346" t="n">
-        <v>12105247897.25322</v>
+        <v>10714717923.69209</v>
       </c>
       <c r="D346" t="n">
-        <v>83790318776.21411</v>
+        <v>83895071911.8851</v>
       </c>
       <c r="E346" t="n">
-        <v>0.0004023847487561814</v>
+        <v>0.0004264086192593837</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.1250181849179466</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>1.000832604408993</v>
+        <v>0.999739572533881</v>
       </c>
       <c r="C347" t="n">
-        <v>10714717923.69209</v>
+        <v>13900641436.01162</v>
       </c>
       <c r="D347" t="n">
-        <v>83895071911.8851</v>
+        <v>83781752304.07178</v>
       </c>
       <c r="E347" t="n">
-        <v>0.0004264086192595064</v>
+        <v>0.0004281928840185592</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.1350730206564954</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>0.999739572533881</v>
+        <v>0.9999453849555628</v>
       </c>
       <c r="C348" t="n">
-        <v>13900641436.01162</v>
+        <v>11602381889.64411</v>
       </c>
       <c r="D348" t="n">
-        <v>83781752304.07178</v>
+        <v>83827866970.28653</v>
       </c>
       <c r="E348" t="n">
-        <v>0.0004281928840186814</v>
+        <v>0.0004134773232908786</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.05504142005454682</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>0.9999453849555628</v>
+        <v>0.9999745347844408</v>
       </c>
       <c r="C349" t="n">
-        <v>11602381889.64411</v>
+        <v>7077454568.378146</v>
       </c>
       <c r="D349" t="n">
-        <v>83827866970.28653</v>
+        <v>83822465176.84192</v>
       </c>
       <c r="E349" t="n">
-        <v>0.0004134773232910052</v>
+        <v>0.0004094862528249304</v>
+      </c>
+      <c r="F349" t="n">
+        <v>-0.006443911362463695</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>0.9999745347844408</v>
+        <v>1.000237845785691</v>
       </c>
       <c r="C350" t="n">
-        <v>7077454568.378146</v>
+        <v>13108022081.57921</v>
       </c>
       <c r="D350" t="n">
-        <v>83822465176.84192</v>
+        <v>83823744370.67871</v>
       </c>
       <c r="E350" t="n">
-        <v>0.0004094862528250582</v>
+        <v>0.0004013495082243217</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.001526075180557918</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>1.000237845785691</v>
+        <v>0.999866830556736</v>
       </c>
       <c r="C351" t="n">
-        <v>13108022081.57921</v>
+        <v>13098215453.81719</v>
       </c>
       <c r="D351" t="n">
-        <v>83823744370.67871</v>
+        <v>83791388839.53244</v>
       </c>
       <c r="E351" t="n">
-        <v>0.0004013495082244521</v>
+        <v>0.0004026144479815542</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-0.03859948203124297</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>0.999866830556736</v>
+        <v>0.9999415960949525</v>
       </c>
       <c r="C352" t="n">
-        <v>13098215453.81719</v>
+        <v>25377039033.12224</v>
       </c>
       <c r="D352" t="n">
-        <v>83791388839.53244</v>
+        <v>83816313473.61049</v>
       </c>
       <c r="E352" t="n">
-        <v>0.0004026144479816842</v>
+        <v>0.0003519019866264989</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.02974605675265529</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>0.9999415960949525</v>
+        <v>0.999241912887552</v>
       </c>
       <c r="C353" t="n">
-        <v>25377039033.12224</v>
+        <v>23643854095.0633</v>
       </c>
       <c r="D353" t="n">
-        <v>83816313473.61049</v>
+        <v>83888527906.0555</v>
       </c>
       <c r="E353" t="n">
-        <v>0.0003519019866266476</v>
+        <v>0.0003815363438076847</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.0861579678850255</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>0.999241912887552</v>
+        <v>0.9986798538079775</v>
       </c>
       <c r="C354" t="n">
-        <v>23643854095.0633</v>
+        <v>17894208326.91909</v>
       </c>
       <c r="D354" t="n">
-        <v>83888527906.0555</v>
+        <v>83841060938.9211</v>
       </c>
       <c r="E354" t="n">
-        <v>0.0003815363438078219</v>
+        <v>0.0004588560437121455</v>
+      </c>
+      <c r="F354" t="n">
+        <v>-0.05658338311473887</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>0.9986798538079775</v>
+        <v>0.9989124954709581</v>
       </c>
       <c r="C355" t="n">
-        <v>17894208326.91909</v>
+        <v>11293689345.82276</v>
       </c>
       <c r="D355" t="n">
-        <v>83841060938.9211</v>
+        <v>83719693334.73195</v>
       </c>
       <c r="E355" t="n">
-        <v>0.0004588560437122596</v>
+        <v>0.0004813601701057673</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-0.1447591464492137</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>0.9989124954709581</v>
+        <v>0.9989869260138814</v>
       </c>
       <c r="C356" t="n">
-        <v>11293689345.82276</v>
+        <v>8632620439.423523</v>
       </c>
       <c r="D356" t="n">
-        <v>83719693334.73195</v>
+        <v>83816979241.18967</v>
       </c>
       <c r="E356" t="n">
-        <v>0.0004813601701058761</v>
+        <v>0.0005174387927869187</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.1162043273005509</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9989869260138814</v>
+        <v>0.9983198416783463</v>
       </c>
       <c r="C357" t="n">
-        <v>8632620439.423523</v>
+        <v>11345706293.52899</v>
       </c>
       <c r="D357" t="n">
-        <v>83816979241.18967</v>
+        <v>83751692193.03862</v>
       </c>
       <c r="E357" t="n">
-        <v>0.0005174387927870198</v>
+        <v>0.0005999061059853074</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-0.07789238975456358</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>0.9983198416783463</v>
+        <v>0.9988731533009275</v>
       </c>
       <c r="C358" t="n">
-        <v>11345706293.52899</v>
+        <v>22713171469.68906</v>
       </c>
       <c r="D358" t="n">
-        <v>83751692193.03862</v>
+        <v>83464564710.04935</v>
       </c>
       <c r="E358" t="n">
-        <v>0.0005999061059853946</v>
+        <v>0.0006269773838683533</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.3428318586417012</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9988731533009275</v>
+        <v>0.9999454982095487</v>
       </c>
       <c r="C359" t="n">
-        <v>22713171469.68906</v>
+        <v>25194087093.52214</v>
       </c>
       <c r="D359" t="n">
-        <v>83464564710.04935</v>
+        <v>83534670798.40623</v>
       </c>
       <c r="E359" t="n">
-        <v>0.0006269773838684366</v>
+        <v>0.0006269905560150067</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.08399503262304098</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>0.9999454982095487</v>
+        <v>0.9997120082401099</v>
       </c>
       <c r="C360" t="n">
-        <v>25194087093.52214</v>
+        <v>18767301829.03158</v>
       </c>
       <c r="D360" t="n">
-        <v>83534670798.40623</v>
+        <v>83496944483.02469</v>
       </c>
       <c r="E360" t="n">
-        <v>0.0006269905560150903</v>
+        <v>0.0006265650196967623</v>
+      </c>
+      <c r="F360" t="n">
+        <v>-0.04516246370634969</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9997120082401099</v>
+        <v>0.9988989814309317</v>
       </c>
       <c r="C361" t="n">
-        <v>18767301829.03158</v>
+        <v>10890096033.91769</v>
       </c>
       <c r="D361" t="n">
-        <v>83496944483.02469</v>
+        <v>83445632345.53148</v>
       </c>
       <c r="E361" t="n">
-        <v>0.0006265650196968459</v>
+        <v>0.0006494119037304296</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-0.06145391045254689</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9988989814309317</v>
+        <v>0.9989379212012733</v>
       </c>
       <c r="C362" t="n">
-        <v>10890096033.91769</v>
+        <v>8184751224.058282</v>
       </c>
       <c r="D362" t="n">
-        <v>83445632345.53148</v>
+        <v>83313809612.89717</v>
       </c>
       <c r="E362" t="n">
-        <v>0.0006494119037305102</v>
+        <v>0.0006566841842470386</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.1579743947393908</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9989379212012733</v>
+        <v>0.9993771983831886</v>
       </c>
       <c r="C363" t="n">
-        <v>8184751224.058282</v>
+        <v>9189020281.947243</v>
       </c>
       <c r="D363" t="n">
-        <v>83313809612.89717</v>
+        <v>83355420569.70955</v>
       </c>
       <c r="E363" t="n">
-        <v>0.0006566841842471183</v>
+        <v>0.0006504204980832542</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.04994484948619426</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>0.9993771983831886</v>
+        <v>0.9993836393270443</v>
       </c>
       <c r="C364" t="n">
-        <v>9189020281.947243</v>
+        <v>9254138040.705431</v>
       </c>
       <c r="D364" t="n">
-        <v>83355420569.70955</v>
+        <v>83303287526.81169</v>
       </c>
       <c r="E364" t="n">
-        <v>0.0006504204980833346</v>
+        <v>0.0006278123305570318</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.06254307463334774</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>0.9993836393270443</v>
+        <v>0.998712649259746</v>
       </c>
       <c r="C365" t="n">
-        <v>9254138040.705431</v>
+        <v>12792365654.7868</v>
       </c>
       <c r="D365" t="n">
-        <v>83303287526.81169</v>
+        <v>83323482665.83325</v>
       </c>
       <c r="E365" t="n">
-        <v>0.0006278123305571152</v>
+        <v>0.0006268688180802413</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.02424290759841519</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>0.998712649259746</v>
+        <v>0.9988934302939576</v>
       </c>
       <c r="C366" t="n">
-        <v>12792365654.7868</v>
+        <v>18746693270.25903</v>
       </c>
       <c r="D366" t="n">
-        <v>83323482665.83325</v>
+        <v>83089141821.30199</v>
       </c>
       <c r="E366" t="n">
-        <v>0.0006268688180803248</v>
+        <v>0.0006170741494646133</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-0.2812422585252272</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.45138888889</v>
+        <v>45154.60416666666</v>
       </c>
       <c r="B367" t="n">
-        <v>0.9986512991719364</v>
+        <v>0.9984033050702661</v>
       </c>
       <c r="C367" t="n">
-        <v>16877111298.90946</v>
+        <v>16925596898.02463</v>
       </c>
       <c r="D367" t="n">
-        <v>83282362350.08417</v>
+        <v>83049185449.9613</v>
       </c>
       <c r="E367" t="n">
-        <v>0.0006279398502811097</v>
+        <v>0.0006520059989690923</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-0.04808855942527446</v>
       </c>
     </row>
   </sheetData>
